--- a/2_分析/30日报表.xlsx
+++ b/2_分析/30日报表.xlsx
@@ -12,7 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="支付统计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'平台报表'!$A$1:$U$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'平台报表'!$A$1:$T$267</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'留存'!$A$1:$G$208</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'支付统计'!$A$1:$G$106</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U267"/>
+  <dimension ref="A1:T267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -522,15 +522,10 @@
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>集团分成比例</t>
+          <t>集团分成</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
-        <is>
-          <t>集团分成</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
         <is>
           <t>公司净收入</t>
         </is>
@@ -594,12 +589,9 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>12</v>
+        <v>2813.0245</v>
       </c>
       <c r="T2" t="n">
-        <v>2813.0245</v>
-      </c>
-      <c r="U2" t="n">
         <v>693066.9845</v>
       </c>
     </row>
@@ -661,12 +653,9 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>12</v>
+        <v>-63939.835</v>
       </c>
       <c r="T3" t="n">
-        <v>-63939.835</v>
-      </c>
-      <c r="U3" t="n">
         <v>1459740.835</v>
       </c>
     </row>
@@ -728,12 +717,9 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>12</v>
+        <v>36140.905</v>
       </c>
       <c r="T4" t="n">
-        <v>36140.905</v>
-      </c>
-      <c r="U4" t="n">
         <v>1208441.875</v>
       </c>
     </row>
@@ -795,12 +781,9 @@
         <v>11103.58</v>
       </c>
       <c r="S5" t="n">
-        <v>12</v>
+        <v>-218782.1027</v>
       </c>
       <c r="T5" t="n">
-        <v>-218782.1027</v>
-      </c>
-      <c r="U5" t="n">
         <v>1628737.3873</v>
       </c>
     </row>
@@ -862,12 +845,9 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>12</v>
+        <v>-83783.1456</v>
       </c>
       <c r="T6" t="n">
-        <v>-83783.1456</v>
-      </c>
-      <c r="U6" t="n">
         <v>1113801.7844</v>
       </c>
     </row>
@@ -929,12 +909,9 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>12</v>
+        <v>-176562.8328</v>
       </c>
       <c r="T7" t="n">
-        <v>-176562.8328</v>
-      </c>
-      <c r="U7" t="n">
         <v>2509305.2772</v>
       </c>
     </row>
@@ -996,12 +973,9 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>12</v>
+        <v>-147725.9853</v>
       </c>
       <c r="T8" t="n">
-        <v>-147725.9853</v>
-      </c>
-      <c r="U8" t="n">
         <v>2294098.4647</v>
       </c>
     </row>
@@ -1063,12 +1037,9 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>12</v>
+        <v>-43877.7865</v>
       </c>
       <c r="T9" t="n">
-        <v>-43877.7865</v>
-      </c>
-      <c r="U9" t="n">
         <v>1121878.9935</v>
       </c>
     </row>
@@ -1130,12 +1101,9 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>12</v>
+        <v>-46237.3486</v>
       </c>
       <c r="T10" t="n">
-        <v>-46237.3486</v>
-      </c>
-      <c r="U10" t="n">
         <v>748705.6914</v>
       </c>
     </row>
@@ -1197,12 +1165,9 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>12</v>
+        <v>50328.6995</v>
       </c>
       <c r="T11" t="n">
-        <v>50328.6995</v>
-      </c>
-      <c r="U11" t="n">
         <v>136881.8295</v>
       </c>
     </row>
@@ -1264,12 +1229,9 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>12</v>
+        <v>97493.97719999999</v>
       </c>
       <c r="T12" t="n">
-        <v>97493.97719999999</v>
-      </c>
-      <c r="U12" t="n">
         <v>-151081.0928</v>
       </c>
     </row>
@@ -1331,12 +1293,9 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12</v>
+        <v>-345584.2391</v>
       </c>
       <c r="T13" t="n">
-        <v>-345584.2391</v>
-      </c>
-      <c r="U13" t="n">
         <v>3340225.5809</v>
       </c>
     </row>
@@ -1398,12 +1357,9 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12</v>
+        <v>-17074.3765</v>
       </c>
       <c r="T14" t="n">
-        <v>-17074.3765</v>
-      </c>
-      <c r="U14" t="n">
         <v>1145745.8535</v>
       </c>
     </row>
@@ -1465,12 +1421,9 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>12</v>
+        <v>-141804.4152</v>
       </c>
       <c r="T15" t="n">
-        <v>-141804.4152</v>
-      </c>
-      <c r="U15" t="n">
         <v>1773473.4448</v>
       </c>
     </row>
@@ -1532,12 +1485,9 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>12</v>
+        <v>-107886.6514</v>
       </c>
       <c r="T16" t="n">
-        <v>-107886.6514</v>
-      </c>
-      <c r="U16" t="n">
         <v>1688401.4286</v>
       </c>
     </row>
@@ -1599,12 +1549,9 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>12</v>
+        <v>-159235.9019</v>
       </c>
       <c r="T17" t="n">
-        <v>-159235.9019</v>
-      </c>
-      <c r="U17" t="n">
         <v>1566538.9481</v>
       </c>
     </row>
@@ -1666,12 +1613,9 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>12</v>
+        <v>-62703.4764</v>
       </c>
       <c r="T18" t="n">
-        <v>-62703.4764</v>
-      </c>
-      <c r="U18" t="n">
         <v>1014334.2636</v>
       </c>
     </row>
@@ -1733,12 +1677,9 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>12</v>
+        <v>-48157.8145</v>
       </c>
       <c r="T19" t="n">
-        <v>-48157.8145</v>
-      </c>
-      <c r="U19" t="n">
         <v>877659.9555</v>
       </c>
     </row>
@@ -1800,12 +1741,9 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>12</v>
+        <v>-122845.9499</v>
       </c>
       <c r="T20" t="n">
-        <v>-122845.9499</v>
-      </c>
-      <c r="U20" t="n">
         <v>1219430.0701</v>
       </c>
     </row>
@@ -1867,12 +1805,9 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>12</v>
+        <v>-15121.47</v>
       </c>
       <c r="T21" t="n">
-        <v>-15121.47</v>
-      </c>
-      <c r="U21" t="n">
         <v>48798.32</v>
       </c>
     </row>
@@ -1934,12 +1869,9 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>12</v>
+        <v>-160668.1776</v>
       </c>
       <c r="T22" t="n">
-        <v>-160668.1776</v>
-      </c>
-      <c r="U22" t="n">
         <v>2455016.3224</v>
       </c>
     </row>
@@ -2001,12 +1933,9 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>12</v>
+        <v>-161629.6726</v>
       </c>
       <c r="T23" t="n">
-        <v>-161629.6726</v>
-      </c>
-      <c r="U23" t="n">
         <v>1816504.7774</v>
       </c>
     </row>
@@ -2068,12 +1997,9 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>12</v>
+        <v>-59145.138</v>
       </c>
       <c r="T24" t="n">
-        <v>-59145.138</v>
-      </c>
-      <c r="U24" t="n">
         <v>1507293.732</v>
       </c>
     </row>
@@ -2135,12 +2061,9 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>12</v>
+        <v>-182802.7261</v>
       </c>
       <c r="T25" t="n">
-        <v>-182802.7261</v>
-      </c>
-      <c r="U25" t="n">
         <v>1110144.7839</v>
       </c>
     </row>
@@ -2202,12 +2125,9 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>12</v>
+        <v>76763.5236</v>
       </c>
       <c r="T26" t="n">
-        <v>76763.5236</v>
-      </c>
-      <c r="U26" t="n">
         <v>-152676.8564</v>
       </c>
     </row>
@@ -2269,12 +2189,9 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>12</v>
+        <v>39687.6394</v>
       </c>
       <c r="T27" t="n">
-        <v>39687.6394</v>
-      </c>
-      <c r="U27" t="n">
         <v>361911.3894</v>
       </c>
     </row>
@@ -2336,12 +2253,9 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>12</v>
+        <v>163930.572</v>
       </c>
       <c r="T28" t="n">
-        <v>163930.572</v>
-      </c>
-      <c r="U28" t="n">
         <v>-340624.508</v>
       </c>
     </row>
@@ -2403,12 +2317,9 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>12</v>
+        <v>-402297.8005</v>
       </c>
       <c r="T29" t="n">
-        <v>-402297.8005</v>
-      </c>
-      <c r="U29" t="n">
         <v>3055132.2995</v>
       </c>
     </row>
@@ -2470,12 +2381,9 @@
         <v>3344447.03</v>
       </c>
       <c r="S30" t="n">
-        <v>12</v>
+        <v>-116323.5396</v>
       </c>
       <c r="T30" t="n">
-        <v>-116323.5396</v>
-      </c>
-      <c r="U30" t="n">
         <v>4433499.3904</v>
       </c>
     </row>
@@ -2537,12 +2445,9 @@
         <v>2313549.26</v>
       </c>
       <c r="S31" t="n">
-        <v>12</v>
+        <v>-121129.9809</v>
       </c>
       <c r="T31" t="n">
-        <v>-121129.9809</v>
-      </c>
-      <c r="U31" t="n">
         <v>4432291.4291</v>
       </c>
     </row>
@@ -2604,12 +2509,9 @@
         <v>53151.48</v>
       </c>
       <c r="S32" t="n">
-        <v>12</v>
+        <v>-43228.1038</v>
       </c>
       <c r="T32" t="n">
-        <v>-43228.1038</v>
-      </c>
-      <c r="U32" t="n">
         <v>2077821.8962</v>
       </c>
     </row>
@@ -2671,12 +2573,9 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>12</v>
+        <v>-54939.2639</v>
       </c>
       <c r="T33" t="n">
-        <v>-54939.2639</v>
-      </c>
-      <c r="U33" t="n">
         <v>485397.7961</v>
       </c>
     </row>
@@ -2738,12 +2637,9 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>12</v>
+        <v>-16436.4707</v>
       </c>
       <c r="T34" t="n">
-        <v>-16436.4707</v>
-      </c>
-      <c r="U34" t="n">
         <v>359195.8793</v>
       </c>
     </row>
@@ -2805,12 +2701,9 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>12</v>
+        <v>-1328.5668</v>
       </c>
       <c r="T35" t="n">
-        <v>-1328.5668</v>
-      </c>
-      <c r="U35" t="n">
         <v>41981.2332</v>
       </c>
     </row>
@@ -2872,12 +2765,9 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>12</v>
+        <v>-6672.7427</v>
       </c>
       <c r="T36" t="n">
-        <v>-6672.7427</v>
-      </c>
-      <c r="U36" t="n">
         <v>107738.0273</v>
       </c>
     </row>
@@ -2939,12 +2829,9 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>12</v>
+        <v>-19582.7569</v>
       </c>
       <c r="T37" t="n">
-        <v>-19582.7569</v>
-      </c>
-      <c r="U37" t="n">
         <v>20109.4431</v>
       </c>
     </row>
@@ -3006,12 +2893,9 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>12</v>
+        <v>-31588.644</v>
       </c>
       <c r="T38" t="n">
-        <v>-31588.644</v>
-      </c>
-      <c r="U38" t="n">
         <v>242493.096</v>
       </c>
     </row>
@@ -3073,12 +2957,9 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>12</v>
+        <v>12379.5312</v>
       </c>
       <c r="T39" t="n">
-        <v>12379.5312</v>
-      </c>
-      <c r="U39" t="n">
         <v>-21509.6088</v>
       </c>
     </row>
@@ -3140,12 +3021,9 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>12</v>
+        <v>-36094.1772</v>
       </c>
       <c r="T40" t="n">
-        <v>-36094.1772</v>
-      </c>
-      <c r="U40" t="n">
         <v>316750.7028</v>
       </c>
     </row>
@@ -3207,12 +3085,9 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>12</v>
+        <v>-4950.9624</v>
       </c>
       <c r="T41" t="n">
-        <v>-4950.9624</v>
-      </c>
-      <c r="U41" t="n">
         <v>37052.9476</v>
       </c>
     </row>
@@ -3274,12 +3149,9 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>12</v>
+        <v>-306.5771</v>
       </c>
       <c r="T42" t="n">
-        <v>-306.5771</v>
-      </c>
-      <c r="U42" t="n">
         <v>190568.3629</v>
       </c>
     </row>
@@ -3341,12 +3213,9 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>12</v>
+        <v>-22701.8639</v>
       </c>
       <c r="T43" t="n">
-        <v>-22701.8639</v>
-      </c>
-      <c r="U43" t="n">
         <v>42888.6361</v>
       </c>
     </row>
@@ -3408,12 +3277,9 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>12</v>
+        <v>-34342.5445</v>
       </c>
       <c r="T44" t="n">
-        <v>-34342.5445</v>
-      </c>
-      <c r="U44" t="n">
         <v>360293.5555</v>
       </c>
     </row>
@@ -3475,12 +3341,9 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>12</v>
+        <v>-30369.9396</v>
       </c>
       <c r="T45" t="n">
-        <v>-30369.9396</v>
-      </c>
-      <c r="U45" t="n">
         <v>289392.4504</v>
       </c>
     </row>
@@ -3542,12 +3405,9 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>12</v>
+        <v>-25306.6513</v>
       </c>
       <c r="T46" t="n">
-        <v>-25306.6513</v>
-      </c>
-      <c r="U46" t="n">
         <v>241488.2787</v>
       </c>
     </row>
@@ -3609,12 +3469,9 @@
         <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>12</v>
+        <v>9645.733200000001</v>
       </c>
       <c r="T47" t="n">
-        <v>9645.733200000001</v>
-      </c>
-      <c r="U47" t="n">
         <v>-67085.2968</v>
       </c>
     </row>
@@ -3676,12 +3533,9 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>12</v>
+        <v>-12379.6692</v>
       </c>
       <c r="T48" t="n">
-        <v>-12379.6692</v>
-      </c>
-      <c r="U48" t="n">
         <v>112179.4508</v>
       </c>
     </row>
@@ -3743,12 +3597,9 @@
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>12</v>
+        <v>-8217.0326</v>
       </c>
       <c r="T49" t="n">
-        <v>-8217.0326</v>
-      </c>
-      <c r="U49" t="n">
         <v>207464.8974</v>
       </c>
     </row>
@@ -3810,12 +3661,9 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>12</v>
+        <v>-577.8189</v>
       </c>
       <c r="T50" t="n">
-        <v>-577.8189</v>
-      </c>
-      <c r="U50" t="n">
         <v>5029.5911</v>
       </c>
     </row>
@@ -3877,12 +3725,9 @@
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>12</v>
+        <v>-2957.5932</v>
       </c>
       <c r="T51" t="n">
-        <v>-2957.5932</v>
-      </c>
-      <c r="U51" t="n">
         <v>22052.2368</v>
       </c>
     </row>
@@ -3944,12 +3789,9 @@
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>12</v>
+        <v>-7672.59</v>
       </c>
       <c r="T52" t="n">
-        <v>-7672.59</v>
-      </c>
-      <c r="U52" t="n">
         <v>11781.26</v>
       </c>
     </row>
@@ -4011,12 +3853,9 @@
         <v>0</v>
       </c>
       <c r="S53" t="n">
-        <v>12</v>
+        <v>11385.3875</v>
       </c>
       <c r="T53" t="n">
-        <v>11385.3875</v>
-      </c>
-      <c r="U53" t="n">
         <v>-108460.6825</v>
       </c>
     </row>
@@ -4078,12 +3917,9 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>12</v>
+        <v>-43276.1736</v>
       </c>
       <c r="T54" t="n">
-        <v>-43276.1736</v>
-      </c>
-      <c r="U54" t="n">
         <v>298529.8264</v>
       </c>
     </row>
@@ -4145,12 +3981,9 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>12</v>
+        <v>-16247.4851</v>
       </c>
       <c r="T55" t="n">
-        <v>-16247.4851</v>
-      </c>
-      <c r="U55" t="n">
         <v>231150.3749</v>
       </c>
     </row>
@@ -4212,12 +4045,9 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
-        <v>12</v>
+        <v>29279.6041</v>
       </c>
       <c r="T56" t="n">
-        <v>29279.6041</v>
-      </c>
-      <c r="U56" t="n">
         <v>-226779.1359</v>
       </c>
     </row>
@@ -4279,12 +4109,9 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>12</v>
+        <v>-57915.8196</v>
       </c>
       <c r="T57" t="n">
-        <v>-57915.8196</v>
-      </c>
-      <c r="U57" t="n">
         <v>373481.6804</v>
       </c>
     </row>
@@ -4346,12 +4173,9 @@
         <v>168587.51</v>
       </c>
       <c r="S58" t="n">
-        <v>12</v>
+        <v>14544.6241</v>
       </c>
       <c r="T58" t="n">
-        <v>14544.6241</v>
-      </c>
-      <c r="U58" t="n">
         <v>54243.4341</v>
       </c>
     </row>
@@ -4413,12 +4237,9 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>12</v>
+        <v>-51807.3625</v>
       </c>
       <c r="T59" t="n">
-        <v>-51807.3625</v>
-      </c>
-      <c r="U59" t="n">
         <v>502545.4675</v>
       </c>
     </row>
@@ -4480,12 +4301,9 @@
         <v>0</v>
       </c>
       <c r="S60" t="n">
-        <v>12</v>
+        <v>-88600.8443</v>
       </c>
       <c r="T60" t="n">
-        <v>-88600.8443</v>
-      </c>
-      <c r="U60" t="n">
         <v>648078.6457</v>
       </c>
     </row>
@@ -4547,12 +4365,9 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>12</v>
+        <v>-25462.026</v>
       </c>
       <c r="T61" t="n">
-        <v>-25462.026</v>
-      </c>
-      <c r="U61" t="n">
         <v>229192.844</v>
       </c>
     </row>
@@ -4614,12 +4429,9 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
-        <v>12</v>
+        <v>-54713.6939</v>
       </c>
       <c r="T62" t="n">
-        <v>-54713.6939</v>
-      </c>
-      <c r="U62" t="n">
         <v>443457.0561</v>
       </c>
     </row>
@@ -4681,12 +4493,9 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
-        <v>12</v>
+        <v>31396.3716</v>
       </c>
       <c r="T63" t="n">
-        <v>31396.3716</v>
-      </c>
-      <c r="U63" t="n">
         <v>-6126.1984</v>
       </c>
     </row>
@@ -4748,12 +4557,9 @@
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>14</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="T64" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="U64" t="n">
         <v>69.54000000000001</v>
       </c>
     </row>
@@ -4815,12 +4621,9 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>14</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="T65" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="U65" t="n">
         <v>0.6840000000000001</v>
       </c>
     </row>
@@ -4882,12 +4685,9 @@
         <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
-      </c>
-      <c r="U66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4949,12 +4749,9 @@
         <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5016,12 +4813,9 @@
         <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5083,12 +4877,9 @@
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5150,12 +4941,9 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
-      </c>
-      <c r="U70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5217,12 +5005,9 @@
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
-      </c>
-      <c r="U71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5284,12 +5069,9 @@
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5351,12 +5133,9 @@
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5418,12 +5197,9 @@
         <v>0</v>
       </c>
       <c r="S74" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
-      </c>
-      <c r="U74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5485,12 +5261,9 @@
         <v>0</v>
       </c>
       <c r="S75" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
-      </c>
-      <c r="U75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5552,12 +5325,9 @@
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
-      </c>
-      <c r="U76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5619,12 +5389,9 @@
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
-      </c>
-      <c r="U77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,12 +5453,9 @@
         <v>0</v>
       </c>
       <c r="S78" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5753,12 +5517,9 @@
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
-      </c>
-      <c r="U79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5820,12 +5581,9 @@
         <v>0</v>
       </c>
       <c r="S80" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
-      </c>
-      <c r="U80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5887,12 +5645,9 @@
         <v>0</v>
       </c>
       <c r="S81" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>0</v>
-      </c>
-      <c r="U81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5954,12 +5709,9 @@
         <v>0</v>
       </c>
       <c r="S82" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
-      </c>
-      <c r="U82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6021,12 +5773,9 @@
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
-      </c>
-      <c r="U83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6088,12 +5837,9 @@
         <v>0</v>
       </c>
       <c r="S84" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
-      </c>
-      <c r="U84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6155,12 +5901,9 @@
         <v>0</v>
       </c>
       <c r="S85" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
-      </c>
-      <c r="U85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6222,12 +5965,9 @@
         <v>0</v>
       </c>
       <c r="S86" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
-      </c>
-      <c r="U86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6289,12 +6029,9 @@
         <v>0</v>
       </c>
       <c r="S87" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
-      </c>
-      <c r="U87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6356,12 +6093,9 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
-      </c>
-      <c r="U88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6423,12 +6157,9 @@
         <v>0</v>
       </c>
       <c r="S89" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
-      </c>
-      <c r="U89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6490,12 +6221,9 @@
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
-      </c>
-      <c r="U90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6557,12 +6285,9 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>0</v>
-      </c>
-      <c r="U91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6624,12 +6349,9 @@
         <v>0</v>
       </c>
       <c r="S92" t="n">
-        <v>14</v>
+        <v>6.86</v>
       </c>
       <c r="T92" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="U92" t="n">
         <v>55.86</v>
       </c>
     </row>
@@ -6691,12 +6413,9 @@
         <v>0</v>
       </c>
       <c r="S93" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
-      </c>
-      <c r="U93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6758,12 +6477,9 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
-      </c>
-      <c r="U94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6825,12 +6541,9 @@
         <v>0</v>
       </c>
       <c r="S95" t="n">
-        <v>12</v>
+        <v>-89340.92389999999</v>
       </c>
       <c r="T95" t="n">
-        <v>-89340.92389999999</v>
-      </c>
-      <c r="U95" t="n">
         <v>1046892.6661</v>
       </c>
     </row>
@@ -6892,12 +6605,9 @@
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>12</v>
+        <v>-20495.4745</v>
       </c>
       <c r="T96" t="n">
-        <v>-20495.4745</v>
-      </c>
-      <c r="U96" t="n">
         <v>351284.5355</v>
       </c>
     </row>
@@ -6959,12 +6669,9 @@
         <v>0</v>
       </c>
       <c r="S97" t="n">
-        <v>12</v>
+        <v>-30328.7064</v>
       </c>
       <c r="T97" t="n">
-        <v>-30328.7064</v>
-      </c>
-      <c r="U97" t="n">
         <v>319973.2836</v>
       </c>
     </row>
@@ -7026,12 +6733,9 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>12</v>
+        <v>-119420.2356</v>
       </c>
       <c r="T98" t="n">
-        <v>-119420.2356</v>
-      </c>
-      <c r="U98" t="n">
         <v>941933.1344</v>
       </c>
     </row>
@@ -7093,12 +6797,9 @@
         <v>0</v>
       </c>
       <c r="S99" t="n">
-        <v>12</v>
+        <v>-25825.3728</v>
       </c>
       <c r="T99" t="n">
-        <v>-25825.3728</v>
-      </c>
-      <c r="U99" t="n">
         <v>579527.9571999999</v>
       </c>
     </row>
@@ -7160,12 +6861,9 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>12</v>
+        <v>8471.7744</v>
       </c>
       <c r="T100" t="n">
-        <v>8471.7744</v>
-      </c>
-      <c r="U100" t="n">
         <v>112977.9944</v>
       </c>
     </row>
@@ -7227,12 +6925,9 @@
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>12</v>
+        <v>-49535.454</v>
       </c>
       <c r="T101" t="n">
-        <v>-49535.454</v>
-      </c>
-      <c r="U101" t="n">
         <v>522754.306</v>
       </c>
     </row>
@@ -7294,12 +6989,9 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>12</v>
+        <v>-29691.0611</v>
       </c>
       <c r="T102" t="n">
-        <v>-29691.0611</v>
-      </c>
-      <c r="U102" t="n">
         <v>147284.5989</v>
       </c>
     </row>
@@ -7361,12 +7053,9 @@
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>12</v>
+        <v>-65757.27469999999</v>
       </c>
       <c r="T103" t="n">
-        <v>-65757.27469999999</v>
-      </c>
-      <c r="U103" t="n">
         <v>509989.3153</v>
       </c>
     </row>
@@ -7428,12 +7117,9 @@
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>12</v>
+        <v>-35045.1156</v>
       </c>
       <c r="T104" t="n">
-        <v>-35045.1156</v>
-      </c>
-      <c r="U104" t="n">
         <v>316017.5544</v>
       </c>
     </row>
@@ -7495,12 +7181,9 @@
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>12</v>
+        <v>-33798.168</v>
       </c>
       <c r="T105" t="n">
-        <v>-33798.168</v>
-      </c>
-      <c r="U105" t="n">
         <v>375668.652</v>
       </c>
     </row>
@@ -7562,12 +7245,9 @@
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>12</v>
+        <v>14168.7181</v>
       </c>
       <c r="T106" t="n">
-        <v>14168.7181</v>
-      </c>
-      <c r="U106" t="n">
         <v>107883.6281</v>
       </c>
     </row>
@@ -7629,12 +7309,9 @@
         <v>0</v>
       </c>
       <c r="S107" t="n">
-        <v>12</v>
+        <v>-18352.4807</v>
       </c>
       <c r="T107" t="n">
-        <v>-18352.4807</v>
-      </c>
-      <c r="U107" t="n">
         <v>323937.5493</v>
       </c>
     </row>
@@ -7696,12 +7373,9 @@
         <v>0</v>
       </c>
       <c r="S108" t="n">
-        <v>12</v>
+        <v>-49444.9439</v>
       </c>
       <c r="T108" t="n">
-        <v>-49444.9439</v>
-      </c>
-      <c r="U108" t="n">
         <v>528001.6861</v>
       </c>
     </row>
@@ -7763,12 +7437,9 @@
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>12</v>
+        <v>-19479.9563</v>
       </c>
       <c r="T109" t="n">
-        <v>-19479.9563</v>
-      </c>
-      <c r="U109" t="n">
         <v>245820.7337</v>
       </c>
     </row>
@@ -7830,12 +7501,9 @@
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>12</v>
+        <v>-4830.7033</v>
       </c>
       <c r="T110" t="n">
-        <v>-4830.7033</v>
-      </c>
-      <c r="U110" t="n">
         <v>330571.3367</v>
       </c>
     </row>
@@ -7897,12 +7565,9 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>12</v>
+        <v>-62147.3604</v>
       </c>
       <c r="T111" t="n">
-        <v>-62147.3604</v>
-      </c>
-      <c r="U111" t="n">
         <v>726098.9196</v>
       </c>
     </row>
@@ -7964,12 +7629,9 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>12</v>
+        <v>-60088.0031</v>
       </c>
       <c r="T112" t="n">
-        <v>-60088.0031</v>
-      </c>
-      <c r="U112" t="n">
         <v>364400.8269</v>
       </c>
     </row>
@@ -8031,12 +7693,9 @@
         <v>0</v>
       </c>
       <c r="S113" t="n">
-        <v>12</v>
+        <v>-68961.9972</v>
       </c>
       <c r="T113" t="n">
-        <v>-68961.9972</v>
-      </c>
-      <c r="U113" t="n">
         <v>690709.2428</v>
       </c>
     </row>
@@ -8098,12 +7757,9 @@
         <v>0</v>
       </c>
       <c r="S114" t="n">
-        <v>12</v>
+        <v>-44603.0028</v>
       </c>
       <c r="T114" t="n">
-        <v>-44603.0028</v>
-      </c>
-      <c r="U114" t="n">
         <v>417376.2072</v>
       </c>
     </row>
@@ -8165,12 +7821,9 @@
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>12</v>
+        <v>-46890.8435</v>
       </c>
       <c r="T115" t="n">
-        <v>-46890.8435</v>
-      </c>
-      <c r="U115" t="n">
         <v>659208.7365</v>
       </c>
     </row>
@@ -8232,12 +7885,9 @@
         <v>0</v>
       </c>
       <c r="S116" t="n">
-        <v>12</v>
+        <v>-26799.666</v>
       </c>
       <c r="T116" t="n">
-        <v>-26799.666</v>
-      </c>
-      <c r="U116" t="n">
         <v>26424.834</v>
       </c>
     </row>
@@ -8299,12 +7949,9 @@
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>12</v>
+        <v>-19906.8324</v>
       </c>
       <c r="T117" t="n">
-        <v>-19906.8324</v>
-      </c>
-      <c r="U117" t="n">
         <v>274389.1476</v>
       </c>
     </row>
@@ -8366,12 +8013,9 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>12</v>
+        <v>33078.396</v>
       </c>
       <c r="T118" t="n">
-        <v>33078.396</v>
-      </c>
-      <c r="U118" t="n">
         <v>117216.086</v>
       </c>
     </row>
@@ -8433,12 +8077,9 @@
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>12</v>
+        <v>-53057.0256</v>
       </c>
       <c r="T119" t="n">
-        <v>-53057.0256</v>
-      </c>
-      <c r="U119" t="n">
         <v>726371.1344</v>
       </c>
     </row>
@@ -8500,12 +8141,9 @@
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>12</v>
+        <v>-32453.178</v>
       </c>
       <c r="T120" t="n">
-        <v>-32453.178</v>
-      </c>
-      <c r="U120" t="n">
         <v>368365.942</v>
       </c>
     </row>
@@ -8567,12 +8205,9 @@
         <v>0</v>
       </c>
       <c r="S121" t="n">
-        <v>12</v>
+        <v>-100222.1735</v>
       </c>
       <c r="T121" t="n">
-        <v>-100222.1735</v>
-      </c>
-      <c r="U121" t="n">
         <v>893990.2565</v>
       </c>
     </row>
@@ -8634,12 +8269,9 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>12</v>
+        <v>-19543.8889</v>
       </c>
       <c r="T122" t="n">
-        <v>-19543.8889</v>
-      </c>
-      <c r="U122" t="n">
         <v>336748.6211</v>
       </c>
     </row>
@@ -8701,12 +8333,9 @@
         <v>0</v>
       </c>
       <c r="S123" t="n">
-        <v>12</v>
+        <v>-68469.49920000001</v>
       </c>
       <c r="T123" t="n">
-        <v>-68469.49920000001</v>
-      </c>
-      <c r="U123" t="n">
         <v>440177.8708</v>
       </c>
     </row>
@@ -8768,12 +8397,9 @@
         <v>0</v>
       </c>
       <c r="S124" t="n">
-        <v>12</v>
+        <v>-65006.7744</v>
       </c>
       <c r="T124" t="n">
-        <v>-65006.7744</v>
-      </c>
-      <c r="U124" t="n">
         <v>386542.8556</v>
       </c>
     </row>
@@ -8835,12 +8461,9 @@
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>12</v>
+        <v>-55979.8093</v>
       </c>
       <c r="T125" t="n">
-        <v>-55979.8093</v>
-      </c>
-      <c r="U125" t="n">
         <v>634115.3107</v>
       </c>
     </row>
@@ -8902,12 +8525,9 @@
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>12</v>
+        <v>3527.8043</v>
       </c>
       <c r="T126" t="n">
-        <v>3527.8043</v>
-      </c>
-      <c r="U126" t="n">
         <v>70639.60430000001</v>
       </c>
     </row>
@@ -8969,12 +8589,9 @@
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>12</v>
+        <v>-3074.1876</v>
       </c>
       <c r="T127" t="n">
-        <v>-3074.1876</v>
-      </c>
-      <c r="U127" t="n">
         <v>-8605.927600000001</v>
       </c>
     </row>
@@ -9036,12 +8653,9 @@
         <v>0</v>
       </c>
       <c r="S128" t="n">
-        <v>12</v>
+        <v>6345.7584</v>
       </c>
       <c r="T128" t="n">
-        <v>6345.7584</v>
-      </c>
-      <c r="U128" t="n">
         <v>28373.3184</v>
       </c>
     </row>
@@ -9103,12 +8717,9 @@
         <v>0</v>
       </c>
       <c r="S129" t="n">
-        <v>12</v>
+        <v>23883.5387</v>
       </c>
       <c r="T129" t="n">
-        <v>23883.5387</v>
-      </c>
-      <c r="U129" t="n">
         <v>48803.8787</v>
       </c>
     </row>
@@ -9170,12 +8781,9 @@
         <v>0</v>
       </c>
       <c r="S130" t="n">
-        <v>12</v>
+        <v>4028.1359</v>
       </c>
       <c r="T130" t="n">
-        <v>4028.1359</v>
-      </c>
-      <c r="U130" t="n">
         <v>-13664.8941</v>
       </c>
     </row>
@@ -9237,12 +8845,9 @@
         <v>0</v>
       </c>
       <c r="S131" t="n">
-        <v>12</v>
+        <v>-25331.2872</v>
       </c>
       <c r="T131" t="n">
-        <v>-25331.2872</v>
-      </c>
-      <c r="U131" t="n">
         <v>237204.6128</v>
       </c>
     </row>
@@ -9304,12 +8909,9 @@
         <v>0</v>
       </c>
       <c r="S132" t="n">
-        <v>12</v>
+        <v>10369.5492</v>
       </c>
       <c r="T132" t="n">
-        <v>10369.5492</v>
-      </c>
-      <c r="U132" t="n">
         <v>-120995.1008</v>
       </c>
     </row>
@@ -9371,12 +8973,9 @@
         <v>0</v>
       </c>
       <c r="S133" t="n">
-        <v>12</v>
+        <v>-4321.8876</v>
       </c>
       <c r="T133" t="n">
-        <v>-4321.8876</v>
-      </c>
-      <c r="U133" t="n">
         <v>38883.7424</v>
       </c>
     </row>
@@ -9438,12 +9037,9 @@
         <v>0</v>
       </c>
       <c r="S134" t="n">
-        <v>12</v>
+        <v>-1778.4478</v>
       </c>
       <c r="T134" t="n">
-        <v>-1778.4478</v>
-      </c>
-      <c r="U134" t="n">
         <v>-15514.2478</v>
       </c>
     </row>
@@ -9505,12 +9101,9 @@
         <v>0</v>
       </c>
       <c r="S135" t="n">
-        <v>12</v>
+        <v>4720.5997</v>
       </c>
       <c r="T135" t="n">
-        <v>4720.5997</v>
-      </c>
-      <c r="U135" t="n">
         <v>17110.2497</v>
       </c>
     </row>
@@ -9572,12 +9165,9 @@
         <v>0</v>
       </c>
       <c r="S136" t="n">
-        <v>12</v>
+        <v>4326.3984</v>
       </c>
       <c r="T136" t="n">
-        <v>4326.3984</v>
-      </c>
-      <c r="U136" t="n">
         <v>37503.1784</v>
       </c>
     </row>
@@ -9639,12 +9229,9 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>12</v>
+        <v>-8589.435600000001</v>
       </c>
       <c r="T137" t="n">
-        <v>-8589.435600000001</v>
-      </c>
-      <c r="U137" t="n">
         <v>67923.47440000001</v>
       </c>
     </row>
@@ -9706,12 +9293,9 @@
         <v>0</v>
       </c>
       <c r="S138" t="n">
-        <v>12</v>
+        <v>-7013.0208</v>
       </c>
       <c r="T138" t="n">
-        <v>-7013.0208</v>
-      </c>
-      <c r="U138" t="n">
         <v>32942.5892</v>
       </c>
     </row>
@@ -9773,12 +9357,9 @@
         <v>0</v>
       </c>
       <c r="S139" t="n">
-        <v>12</v>
+        <v>6008.8067</v>
       </c>
       <c r="T139" t="n">
-        <v>6008.8067</v>
-      </c>
-      <c r="U139" t="n">
         <v>31460.9767</v>
       </c>
     </row>
@@ -9840,12 +9421,9 @@
         <v>0</v>
       </c>
       <c r="S140" t="n">
-        <v>12</v>
+        <v>-12810.2436</v>
       </c>
       <c r="T140" t="n">
-        <v>-12810.2436</v>
-      </c>
-      <c r="U140" t="n">
         <v>100753.1564</v>
       </c>
     </row>
@@ -9907,12 +9485,9 @@
         <v>0</v>
       </c>
       <c r="S141" t="n">
-        <v>12</v>
+        <v>-4129.9188</v>
       </c>
       <c r="T141" t="n">
-        <v>-4129.9188</v>
-      </c>
-      <c r="U141" t="n">
         <v>13807.3712</v>
       </c>
     </row>
@@ -9974,12 +9549,9 @@
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>12</v>
+        <v>165.6804</v>
       </c>
       <c r="T142" t="n">
-        <v>165.6804</v>
-      </c>
-      <c r="U142" t="n">
         <v>-3801.3196</v>
       </c>
     </row>
@@ -10041,12 +9613,9 @@
         <v>0</v>
       </c>
       <c r="S143" t="n">
-        <v>12</v>
+        <v>6125.9184</v>
       </c>
       <c r="T143" t="n">
-        <v>6125.9184</v>
-      </c>
-      <c r="U143" t="n">
         <v>60165.7384</v>
       </c>
     </row>
@@ -10108,12 +9677,9 @@
         <v>0</v>
       </c>
       <c r="S144" t="n">
-        <v>12</v>
+        <v>2382.3924</v>
       </c>
       <c r="T144" t="n">
-        <v>2382.3924</v>
-      </c>
-      <c r="U144" t="n">
         <v>6450.2224</v>
       </c>
     </row>
@@ -10175,12 +9741,9 @@
         <v>0</v>
       </c>
       <c r="S145" t="n">
-        <v>12</v>
+        <v>-3016.4664</v>
       </c>
       <c r="T145" t="n">
-        <v>-3016.4664</v>
-      </c>
-      <c r="U145" t="n">
         <v>8887.873600000001</v>
       </c>
     </row>
@@ -10242,12 +9805,9 @@
         <v>0</v>
       </c>
       <c r="S146" t="n">
-        <v>12</v>
+        <v>1748.0208</v>
       </c>
       <c r="T146" t="n">
-        <v>1748.0208</v>
-      </c>
-      <c r="U146" t="n">
         <v>2790.9008</v>
       </c>
     </row>
@@ -10309,12 +9869,9 @@
         <v>0</v>
       </c>
       <c r="S147" t="n">
-        <v>12</v>
+        <v>-2963.8259</v>
       </c>
       <c r="T147" t="n">
-        <v>-2963.8259</v>
-      </c>
-      <c r="U147" t="n">
         <v>54074.1041</v>
       </c>
     </row>
@@ -10376,12 +9933,9 @@
         <v>0</v>
       </c>
       <c r="S148" t="n">
-        <v>12</v>
+        <v>-4759.6068</v>
       </c>
       <c r="T148" t="n">
-        <v>-4759.6068</v>
-      </c>
-      <c r="U148" t="n">
         <v>80688.7732</v>
       </c>
     </row>
@@ -10443,12 +9997,9 @@
         <v>0</v>
       </c>
       <c r="S149" t="n">
-        <v>12</v>
+        <v>-7972.9356</v>
       </c>
       <c r="T149" t="n">
-        <v>-7972.9356</v>
-      </c>
-      <c r="U149" t="n">
         <v>96112.3244</v>
       </c>
     </row>
@@ -10510,12 +10061,9 @@
         <v>0</v>
       </c>
       <c r="S150" t="n">
-        <v>12</v>
+        <v>1260.3636</v>
       </c>
       <c r="T150" t="n">
-        <v>1260.3636</v>
-      </c>
-      <c r="U150" t="n">
         <v>13130.6036</v>
       </c>
     </row>
@@ -10577,12 +10125,9 @@
         <v>0</v>
       </c>
       <c r="S151" t="n">
-        <v>12</v>
+        <v>-540.7224</v>
       </c>
       <c r="T151" t="n">
-        <v>-540.7224</v>
-      </c>
-      <c r="U151" t="n">
         <v>4812.6176</v>
       </c>
     </row>
@@ -10644,12 +10189,9 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>12</v>
+        <v>-3526.8444</v>
       </c>
       <c r="T152" t="n">
-        <v>-3526.8444</v>
-      </c>
-      <c r="U152" t="n">
         <v>65282.3056</v>
       </c>
     </row>
@@ -10711,12 +10253,9 @@
         <v>0</v>
       </c>
       <c r="S153" t="n">
-        <v>12</v>
+        <v>-407.2788</v>
       </c>
       <c r="T153" t="n">
-        <v>-407.2788</v>
-      </c>
-      <c r="U153" t="n">
         <v>-6163.3088</v>
       </c>
     </row>
@@ -10778,12 +10317,9 @@
         <v>0</v>
       </c>
       <c r="S154" t="n">
-        <v>12</v>
+        <v>1734.4296</v>
       </c>
       <c r="T154" t="n">
-        <v>1734.4296</v>
-      </c>
-      <c r="U154" t="n">
         <v>-12428.4704</v>
       </c>
     </row>
@@ -10845,12 +10381,9 @@
         <v>0</v>
       </c>
       <c r="S155" t="n">
-        <v>12</v>
+        <v>-653.5524</v>
       </c>
       <c r="T155" t="n">
-        <v>-653.5524</v>
-      </c>
-      <c r="U155" t="n">
         <v>8141.2376</v>
       </c>
     </row>
@@ -10912,12 +10445,9 @@
         <v>0</v>
       </c>
       <c r="S156" t="n">
-        <v>12</v>
+        <v>9249.007100000001</v>
       </c>
       <c r="T156" t="n">
-        <v>9249.007100000001</v>
-      </c>
-      <c r="U156" t="n">
         <v>89948.5471</v>
       </c>
     </row>
@@ -10979,12 +10509,9 @@
         <v>0</v>
       </c>
       <c r="S157" t="n">
-        <v>12</v>
+        <v>11568.1115</v>
       </c>
       <c r="T157" t="n">
-        <v>11568.1115</v>
-      </c>
-      <c r="U157" t="n">
         <v>7002.4315</v>
       </c>
     </row>
@@ -11046,12 +10573,9 @@
         <v>0</v>
       </c>
       <c r="S158" t="n">
-        <v>12</v>
+        <v>6663.1583</v>
       </c>
       <c r="T158" t="n">
-        <v>6663.1583</v>
-      </c>
-      <c r="U158" t="n">
         <v>-14893.4117</v>
       </c>
     </row>
@@ -11113,12 +10637,9 @@
         <v>0</v>
       </c>
       <c r="S159" t="n">
-        <v>12</v>
+        <v>17848.0441</v>
       </c>
       <c r="T159" t="n">
-        <v>17848.0441</v>
-      </c>
-      <c r="U159" t="n">
         <v>-4035.3459</v>
       </c>
     </row>
@@ -11180,12 +10701,9 @@
         <v>0</v>
       </c>
       <c r="S160" t="n">
-        <v>12</v>
+        <v>11995.446</v>
       </c>
       <c r="T160" t="n">
-        <v>11995.446</v>
-      </c>
-      <c r="U160" t="n">
         <v>-3463.504</v>
       </c>
     </row>
@@ -11247,12 +10765,9 @@
         <v>0</v>
       </c>
       <c r="S161" t="n">
-        <v>12</v>
+        <v>-29865.2891</v>
       </c>
       <c r="T161" t="n">
-        <v>-29865.2891</v>
-      </c>
-      <c r="U161" t="n">
         <v>338940.9809</v>
       </c>
     </row>
@@ -11314,12 +10829,9 @@
         <v>0</v>
       </c>
       <c r="S162" t="n">
-        <v>12</v>
+        <v>14965.986</v>
       </c>
       <c r="T162" t="n">
-        <v>14965.986</v>
-      </c>
-      <c r="U162" t="n">
         <v>58131.526</v>
       </c>
     </row>
@@ -11381,12 +10893,9 @@
         <v>0</v>
       </c>
       <c r="S163" t="n">
-        <v>12</v>
+        <v>38707.6812</v>
       </c>
       <c r="T163" t="n">
-        <v>38707.6812</v>
-      </c>
-      <c r="U163" t="n">
         <v>-217184.9188</v>
       </c>
     </row>
@@ -11448,12 +10957,9 @@
         <v>0</v>
       </c>
       <c r="S164" t="n">
-        <v>12</v>
+        <v>28104.3983</v>
       </c>
       <c r="T164" t="n">
-        <v>28104.3983</v>
-      </c>
-      <c r="U164" t="n">
         <v>-100840.3717</v>
       </c>
     </row>
@@ -11515,12 +11021,9 @@
         <v>0</v>
       </c>
       <c r="S165" t="n">
-        <v>12</v>
+        <v>-59575.2503</v>
       </c>
       <c r="T165" t="n">
-        <v>-59575.2503</v>
-      </c>
-      <c r="U165" t="n">
         <v>531055.4197</v>
       </c>
     </row>
@@ -11582,12 +11085,9 @@
         <v>0</v>
       </c>
       <c r="S166" t="n">
-        <v>12</v>
+        <v>79924.65949999999</v>
       </c>
       <c r="T166" t="n">
-        <v>79924.65949999999</v>
-      </c>
-      <c r="U166" t="n">
         <v>-529591.9305</v>
       </c>
     </row>
@@ -11649,12 +11149,9 @@
         <v>0</v>
       </c>
       <c r="S167" t="n">
-        <v>12</v>
+        <v>-13530.9948</v>
       </c>
       <c r="T167" t="n">
-        <v>-13530.9948</v>
-      </c>
-      <c r="U167" t="n">
         <v>140037.5752</v>
       </c>
     </row>
@@ -11716,12 +11213,9 @@
         <v>0</v>
       </c>
       <c r="S168" t="n">
-        <v>12</v>
+        <v>-26305.308</v>
       </c>
       <c r="T168" t="n">
-        <v>-26305.308</v>
-      </c>
-      <c r="U168" t="n">
         <v>255820.982</v>
       </c>
     </row>
@@ -11783,12 +11277,9 @@
         <v>0</v>
       </c>
       <c r="S169" t="n">
-        <v>12</v>
+        <v>3873.0228</v>
       </c>
       <c r="T169" t="n">
-        <v>3873.0228</v>
-      </c>
-      <c r="U169" t="n">
         <v>68465.8728</v>
       </c>
     </row>
@@ -11850,12 +11341,9 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>12</v>
+        <v>-27621.7871</v>
       </c>
       <c r="T170" t="n">
-        <v>-27621.7871</v>
-      </c>
-      <c r="U170" t="n">
         <v>310814.0929</v>
       </c>
     </row>
@@ -11917,12 +11405,9 @@
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>12</v>
+        <v>-4321.6644</v>
       </c>
       <c r="T171" t="n">
-        <v>-4321.6644</v>
-      </c>
-      <c r="U171" t="n">
         <v>86895.77559999999</v>
       </c>
     </row>
@@ -11984,12 +11469,9 @@
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>12</v>
+        <v>11338.1424</v>
       </c>
       <c r="T172" t="n">
-        <v>11338.1424</v>
-      </c>
-      <c r="U172" t="n">
         <v>80190.7524</v>
       </c>
     </row>
@@ -12051,12 +11533,9 @@
         <v>0</v>
       </c>
       <c r="S173" t="n">
-        <v>12</v>
+        <v>34788.4356</v>
       </c>
       <c r="T173" t="n">
-        <v>34788.4356</v>
-      </c>
-      <c r="U173" t="n">
         <v>-181995.2044</v>
       </c>
     </row>
@@ -12118,12 +11597,9 @@
         <v>0</v>
       </c>
       <c r="S174" t="n">
-        <v>12</v>
+        <v>-19773.9767</v>
       </c>
       <c r="T174" t="n">
-        <v>-19773.9767</v>
-      </c>
-      <c r="U174" t="n">
         <v>175449.6533</v>
       </c>
     </row>
@@ -12185,12 +11661,9 @@
         <v>0</v>
       </c>
       <c r="S175" t="n">
-        <v>12</v>
+        <v>-25428.0659</v>
       </c>
       <c r="T175" t="n">
-        <v>-25428.0659</v>
-      </c>
-      <c r="U175" t="n">
         <v>19583.4841</v>
       </c>
     </row>
@@ -12252,12 +11725,9 @@
         <v>0</v>
       </c>
       <c r="S176" t="n">
-        <v>12</v>
+        <v>47769.5459</v>
       </c>
       <c r="T176" t="n">
-        <v>47769.5459</v>
-      </c>
-      <c r="U176" t="n">
         <v>-264407.7641</v>
       </c>
     </row>
@@ -12319,12 +11789,9 @@
         <v>0</v>
       </c>
       <c r="S177" t="n">
-        <v>12</v>
+        <v>-73390.34390000001</v>
       </c>
       <c r="T177" t="n">
-        <v>-73390.34390000001</v>
-      </c>
-      <c r="U177" t="n">
         <v>622142.3661</v>
       </c>
     </row>
@@ -12386,12 +11853,9 @@
         <v>0</v>
       </c>
       <c r="S178" t="n">
-        <v>12</v>
+        <v>63701.1683</v>
       </c>
       <c r="T178" t="n">
-        <v>63701.1683</v>
-      </c>
-      <c r="U178" t="n">
         <v>-408932.1517</v>
       </c>
     </row>
@@ -12453,12 +11917,9 @@
         <v>0</v>
       </c>
       <c r="S179" t="n">
-        <v>12</v>
+        <v>-15223.6885</v>
       </c>
       <c r="T179" t="n">
-        <v>-15223.6885</v>
-      </c>
-      <c r="U179" t="n">
         <v>135949.5915</v>
       </c>
     </row>
@@ -12520,12 +11981,9 @@
         <v>0</v>
       </c>
       <c r="S180" t="n">
-        <v>12</v>
+        <v>-11748.7283</v>
       </c>
       <c r="T180" t="n">
-        <v>-11748.7283</v>
-      </c>
-      <c r="U180" t="n">
         <v>171469.1417</v>
       </c>
     </row>
@@ -12587,12 +12045,9 @@
         <v>0</v>
       </c>
       <c r="S181" t="n">
-        <v>12</v>
+        <v>5922.3611</v>
       </c>
       <c r="T181" t="n">
-        <v>5922.3611</v>
-      </c>
-      <c r="U181" t="n">
         <v>17167.6211</v>
       </c>
     </row>
@@ -12654,12 +12109,9 @@
         <v>0</v>
       </c>
       <c r="S182" t="n">
-        <v>12</v>
+        <v>-11865.5999</v>
       </c>
       <c r="T182" t="n">
-        <v>-11865.5999</v>
-      </c>
-      <c r="U182" t="n">
         <v>245253.5801</v>
       </c>
     </row>
@@ -12721,12 +12173,9 @@
         <v>0</v>
       </c>
       <c r="S183" t="n">
-        <v>12</v>
+        <v>-28525.1436</v>
       </c>
       <c r="T183" t="n">
-        <v>-28525.1436</v>
-      </c>
-      <c r="U183" t="n">
         <v>356829.3464</v>
       </c>
     </row>
@@ -12788,12 +12237,9 @@
         <v>0</v>
       </c>
       <c r="S184" t="n">
-        <v>12</v>
+        <v>-79639.0895</v>
       </c>
       <c r="T184" t="n">
-        <v>-79639.0895</v>
-      </c>
-      <c r="U184" t="n">
         <v>665412.7205000001</v>
       </c>
     </row>
@@ -12855,12 +12301,9 @@
         <v>0</v>
       </c>
       <c r="S185" t="n">
-        <v>12</v>
+        <v>-54605.8068</v>
       </c>
       <c r="T185" t="n">
-        <v>-54605.8068</v>
-      </c>
-      <c r="U185" t="n">
         <v>504437.0932</v>
       </c>
     </row>
@@ -12922,12 +12365,9 @@
         <v>0</v>
       </c>
       <c r="S186" t="n">
-        <v>12</v>
+        <v>-32112.7259</v>
       </c>
       <c r="T186" t="n">
-        <v>-32112.7259</v>
-      </c>
-      <c r="U186" t="n">
         <v>308274.0041</v>
       </c>
     </row>
@@ -12989,12 +12429,9 @@
         <v>0</v>
       </c>
       <c r="S187" t="n">
-        <v>12</v>
+        <v>-27677.1719</v>
       </c>
       <c r="T187" t="n">
-        <v>-27677.1719</v>
-      </c>
-      <c r="U187" t="n">
         <v>292704.1081</v>
       </c>
     </row>
@@ -13056,12 +12493,9 @@
         <v>0</v>
       </c>
       <c r="S188" t="n">
-        <v>12</v>
+        <v>6275.8044</v>
       </c>
       <c r="T188" t="n">
-        <v>6275.8044</v>
-      </c>
-      <c r="U188" t="n">
         <v>232896.5944</v>
       </c>
     </row>
@@ -13123,12 +12557,9 @@
         <v>0</v>
       </c>
       <c r="S189" t="n">
-        <v>12</v>
+        <v>-13369.2863</v>
       </c>
       <c r="T189" t="n">
-        <v>-13369.2863</v>
-      </c>
-      <c r="U189" t="n">
         <v>77423.9737</v>
       </c>
     </row>
@@ -13190,12 +12621,9 @@
         <v>0</v>
       </c>
       <c r="S190" t="n">
-        <v>12</v>
+        <v>-14265.5724</v>
       </c>
       <c r="T190" t="n">
-        <v>-14265.5724</v>
-      </c>
-      <c r="U190" t="n">
         <v>141223.2376</v>
       </c>
     </row>
@@ -13257,12 +12685,9 @@
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>12</v>
+        <v>-30002.1035</v>
       </c>
       <c r="T191" t="n">
-        <v>-30002.1035</v>
-      </c>
-      <c r="U191" t="n">
         <v>41596.8965</v>
       </c>
     </row>
@@ -13324,12 +12749,9 @@
         <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>12</v>
+        <v>23350.3992</v>
       </c>
       <c r="T192" t="n">
-        <v>23350.3992</v>
-      </c>
-      <c r="U192" t="n">
         <v>-80049.5408</v>
       </c>
     </row>
@@ -13391,12 +12813,9 @@
         <v>14914.2465</v>
       </c>
       <c r="S193" t="n">
-        <v>12</v>
+        <v>-6317.4023</v>
       </c>
       <c r="T193" t="n">
-        <v>-6317.4023</v>
-      </c>
-      <c r="U193" t="n">
         <v>124112.5142</v>
       </c>
     </row>
@@ -13458,12 +12877,9 @@
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>12</v>
+        <v>-51271.896</v>
       </c>
       <c r="T194" t="n">
-        <v>-51271.896</v>
-      </c>
-      <c r="U194" t="n">
         <v>570295.804</v>
       </c>
     </row>
@@ -13525,12 +12941,9 @@
         <v>0</v>
       </c>
       <c r="S195" t="n">
-        <v>12</v>
+        <v>48846.1511</v>
       </c>
       <c r="T195" t="n">
-        <v>48846.1511</v>
-      </c>
-      <c r="U195" t="n">
         <v>-142417.0889</v>
       </c>
     </row>
@@ -13592,12 +13005,9 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>12</v>
+        <v>-33936.5698</v>
       </c>
       <c r="T196" t="n">
-        <v>-33936.5698</v>
-      </c>
-      <c r="U196" t="n">
         <v>175544.1102</v>
       </c>
     </row>
@@ -13659,12 +13069,9 @@
         <v>0</v>
       </c>
       <c r="S197" t="n">
-        <v>12</v>
+        <v>9431.456399999999</v>
       </c>
       <c r="T197" t="n">
-        <v>9431.456399999999</v>
-      </c>
-      <c r="U197" t="n">
         <v>89154.32640000001</v>
       </c>
     </row>
@@ -13726,12 +13133,9 @@
         <v>0</v>
       </c>
       <c r="S198" t="n">
-        <v>12</v>
+        <v>-1926.2063</v>
       </c>
       <c r="T198" t="n">
-        <v>-1926.2063</v>
-      </c>
-      <c r="U198" t="n">
         <v>223345.4837</v>
       </c>
     </row>
@@ -13793,12 +13197,9 @@
         <v>0</v>
       </c>
       <c r="S199" t="n">
-        <v>12</v>
+        <v>19250.4767</v>
       </c>
       <c r="T199" t="n">
-        <v>19250.4767</v>
-      </c>
-      <c r="U199" t="n">
         <v>-48537.8333</v>
       </c>
     </row>
@@ -13860,12 +13261,9 @@
         <v>0</v>
       </c>
       <c r="S200" t="n">
-        <v>12</v>
+        <v>-1990.7292</v>
       </c>
       <c r="T200" t="n">
-        <v>-1990.7292</v>
-      </c>
-      <c r="U200" t="n">
         <v>-18247.3392</v>
       </c>
     </row>
@@ -13927,12 +13325,9 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>12</v>
+        <v>-12890.6352</v>
       </c>
       <c r="T201" t="n">
-        <v>-12890.6352</v>
-      </c>
-      <c r="U201" t="n">
         <v>270224.3648</v>
       </c>
     </row>
@@ -13994,12 +13389,9 @@
         <v>0</v>
       </c>
       <c r="S202" t="n">
-        <v>12</v>
+        <v>29231.0592</v>
       </c>
       <c r="T202" t="n">
-        <v>29231.0592</v>
-      </c>
-      <c r="U202" t="n">
         <v>-46691.8008</v>
       </c>
     </row>
@@ -14061,12 +13453,9 @@
         <v>0</v>
       </c>
       <c r="S203" t="n">
-        <v>12</v>
+        <v>161.568</v>
       </c>
       <c r="T203" t="n">
-        <v>161.568</v>
-      </c>
-      <c r="U203" t="n">
         <v>26059.128</v>
       </c>
     </row>
@@ -14128,12 +13517,9 @@
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>12</v>
+        <v>27435.4836</v>
       </c>
       <c r="T204" t="n">
-        <v>27435.4836</v>
-      </c>
-      <c r="U204" t="n">
         <v>-69839.82640000001</v>
       </c>
     </row>
@@ -14195,12 +13581,9 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>12</v>
+        <v>-5084.6363</v>
       </c>
       <c r="T205" t="n">
-        <v>-5084.6363</v>
-      </c>
-      <c r="U205" t="n">
         <v>53575.9837</v>
       </c>
     </row>
@@ -14262,12 +13645,9 @@
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>12</v>
+        <v>-9295.225200000001</v>
       </c>
       <c r="T206" t="n">
-        <v>-9295.225200000001</v>
-      </c>
-      <c r="U206" t="n">
         <v>295769.3948</v>
       </c>
     </row>
@@ -14329,12 +13709,9 @@
         <v>0</v>
       </c>
       <c r="S207" t="n">
-        <v>12</v>
+        <v>10865.6725</v>
       </c>
       <c r="T207" t="n">
-        <v>10865.6725</v>
-      </c>
-      <c r="U207" t="n">
         <v>79093.3925</v>
       </c>
     </row>
@@ -14396,12 +13773,9 @@
         <v>0</v>
       </c>
       <c r="S208" t="n">
-        <v>12</v>
+        <v>-3754.284</v>
       </c>
       <c r="T208" t="n">
-        <v>-3754.284</v>
-      </c>
-      <c r="U208" t="n">
         <v>313878.886</v>
       </c>
     </row>
@@ -14463,12 +13837,9 @@
         <v>0</v>
       </c>
       <c r="S209" t="n">
-        <v>12</v>
+        <v>3332.2525</v>
       </c>
       <c r="T209" t="n">
-        <v>3332.2525</v>
-      </c>
-      <c r="U209" t="n">
         <v>86876.8725</v>
       </c>
     </row>
@@ -14530,12 +13901,9 @@
         <v>0</v>
       </c>
       <c r="S210" t="n">
-        <v>12</v>
+        <v>-372.4776</v>
       </c>
       <c r="T210" t="n">
-        <v>-372.4776</v>
-      </c>
-      <c r="U210" t="n">
         <v>92930.3524</v>
       </c>
     </row>
@@ -14597,12 +13965,9 @@
         <v>0</v>
       </c>
       <c r="S211" t="n">
-        <v>12</v>
+        <v>-30501.4043</v>
       </c>
       <c r="T211" t="n">
-        <v>-30501.4043</v>
-      </c>
-      <c r="U211" t="n">
         <v>338453.3557</v>
       </c>
     </row>
@@ -14664,12 +14029,9 @@
         <v>0</v>
       </c>
       <c r="S212" t="n">
-        <v>12</v>
+        <v>3860.2499</v>
       </c>
       <c r="T212" t="n">
-        <v>3860.2499</v>
-      </c>
-      <c r="U212" t="n">
         <v>80989.5399</v>
       </c>
     </row>
@@ -14731,12 +14093,9 @@
         <v>0</v>
       </c>
       <c r="S213" t="n">
-        <v>12</v>
+        <v>1984.4676</v>
       </c>
       <c r="T213" t="n">
-        <v>1984.4676</v>
-      </c>
-      <c r="U213" t="n">
         <v>99481.48759999999</v>
       </c>
     </row>
@@ -14798,12 +14157,9 @@
         <v>218623.95</v>
       </c>
       <c r="S214" t="n">
-        <v>12</v>
+        <v>-9915.475200000001</v>
       </c>
       <c r="T214" t="n">
-        <v>-9915.475200000001</v>
-      </c>
-      <c r="U214" t="n">
         <v>311518.7548</v>
       </c>
     </row>
@@ -14865,12 +14221,9 @@
         <v>0</v>
       </c>
       <c r="S215" t="n">
-        <v>12</v>
+        <v>-13235.2523</v>
       </c>
       <c r="T215" t="n">
-        <v>-13235.2523</v>
-      </c>
-      <c r="U215" t="n">
         <v>159519.0277</v>
       </c>
     </row>
@@ -14932,12 +14285,9 @@
         <v>338211.33</v>
       </c>
       <c r="S216" t="n">
-        <v>12</v>
+        <v>-20329.164</v>
       </c>
       <c r="T216" t="n">
-        <v>-20329.164</v>
-      </c>
-      <c r="U216" t="n">
         <v>538903.026</v>
       </c>
     </row>
@@ -14999,12 +14349,9 @@
         <v>250393.47</v>
       </c>
       <c r="S217" t="n">
-        <v>12</v>
+        <v>4108.2936</v>
       </c>
       <c r="T217" t="n">
-        <v>4108.2936</v>
-      </c>
-      <c r="U217" t="n">
         <v>313157.7436</v>
       </c>
     </row>
@@ -15066,12 +14413,9 @@
         <v>110111.438</v>
       </c>
       <c r="S218" t="n">
-        <v>12</v>
+        <v>-5194.6271</v>
       </c>
       <c r="T218" t="n">
-        <v>-5194.6271</v>
-      </c>
-      <c r="U218" t="n">
         <v>258300.5409</v>
       </c>
     </row>
@@ -15133,12 +14477,9 @@
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>12</v>
+        <v>1290.1045</v>
       </c>
       <c r="T219" t="n">
-        <v>1290.1045</v>
-      </c>
-      <c r="U219" t="n">
         <v>69319.0445</v>
       </c>
     </row>
@@ -15200,12 +14541,9 @@
         <v>0</v>
       </c>
       <c r="S220" t="n">
-        <v>12</v>
+        <v>-3226.1206</v>
       </c>
       <c r="T220" t="n">
-        <v>-3226.1206</v>
-      </c>
-      <c r="U220" t="n">
         <v>32188.5694</v>
       </c>
     </row>
@@ -15267,12 +14605,9 @@
         <v>0</v>
       </c>
       <c r="S221" t="n">
-        <v>12</v>
+        <v>-8995.172399999999</v>
       </c>
       <c r="T221" t="n">
-        <v>-8995.172399999999</v>
-      </c>
-      <c r="U221" t="n">
         <v>94408.65760000001</v>
       </c>
     </row>
@@ -15334,12 +14669,9 @@
         <v>0</v>
       </c>
       <c r="S222" t="n">
-        <v>12</v>
+        <v>-7809.5472</v>
       </c>
       <c r="T222" t="n">
-        <v>-7809.5472</v>
-      </c>
-      <c r="U222" t="n">
         <v>91418.2228</v>
       </c>
     </row>
@@ -15401,12 +14733,9 @@
         <v>0</v>
       </c>
       <c r="S223" t="n">
-        <v>12</v>
+        <v>-5222.5115</v>
       </c>
       <c r="T223" t="n">
-        <v>-5222.5115</v>
-      </c>
-      <c r="U223" t="n">
         <v>34314.8685</v>
       </c>
     </row>
@@ -15468,12 +14797,9 @@
         <v>0</v>
       </c>
       <c r="S224" t="n">
-        <v>12</v>
+        <v>-212207.574</v>
       </c>
       <c r="T224" t="n">
-        <v>-212207.574</v>
-      </c>
-      <c r="U224" t="n">
         <v>1749685.616</v>
       </c>
     </row>
@@ -15535,12 +14861,9 @@
         <v>0</v>
       </c>
       <c r="S225" t="n">
-        <v>12</v>
+        <v>-49117.3969</v>
       </c>
       <c r="T225" t="n">
-        <v>-49117.3969</v>
-      </c>
-      <c r="U225" t="n">
         <v>606366.7931</v>
       </c>
     </row>
@@ -15602,12 +14925,9 @@
         <v>0</v>
       </c>
       <c r="S226" t="n">
-        <v>12</v>
+        <v>11351.5883</v>
       </c>
       <c r="T226" t="n">
-        <v>11351.5883</v>
-      </c>
-      <c r="U226" t="n">
         <v>-22944.4817</v>
       </c>
     </row>
@@ -15669,12 +14989,9 @@
         <v>0</v>
       </c>
       <c r="S227" t="n">
-        <v>12</v>
+        <v>10726.2792</v>
       </c>
       <c r="T227" t="n">
-        <v>10726.2792</v>
-      </c>
-      <c r="U227" t="n">
         <v>8008.4092</v>
       </c>
     </row>
@@ -15736,12 +15053,9 @@
         <v>0</v>
       </c>
       <c r="S228" t="n">
-        <v>12</v>
+        <v>-11454.9419</v>
       </c>
       <c r="T228" t="n">
-        <v>-11454.9419</v>
-      </c>
-      <c r="U228" t="n">
         <v>114552.4781</v>
       </c>
     </row>
@@ -15803,12 +15117,9 @@
         <v>0</v>
       </c>
       <c r="S229" t="n">
-        <v>12</v>
+        <v>-11167.0174</v>
       </c>
       <c r="T229" t="n">
-        <v>-11167.0174</v>
-      </c>
-      <c r="U229" t="n">
         <v>154762.7126</v>
       </c>
     </row>
@@ -15870,12 +15181,9 @@
         <v>0</v>
       </c>
       <c r="S230" t="n">
-        <v>12</v>
+        <v>1657.782</v>
       </c>
       <c r="T230" t="n">
-        <v>1657.782</v>
-      </c>
-      <c r="U230" t="n">
         <v>44794.332</v>
       </c>
     </row>
@@ -15937,12 +15245,9 @@
         <v>0</v>
       </c>
       <c r="S231" t="n">
-        <v>12</v>
+        <v>-4797.1607</v>
       </c>
       <c r="T231" t="n">
-        <v>-4797.1607</v>
-      </c>
-      <c r="U231" t="n">
         <v>48752.6793</v>
       </c>
     </row>
@@ -16004,12 +15309,9 @@
         <v>0</v>
       </c>
       <c r="S232" t="n">
-        <v>12</v>
+        <v>-3311.9461</v>
       </c>
       <c r="T232" t="n">
-        <v>-3311.9461</v>
-      </c>
-      <c r="U232" t="n">
         <v>70388.92389999999</v>
       </c>
     </row>
@@ -16071,12 +15373,9 @@
         <v>0</v>
       </c>
       <c r="S233" t="n">
-        <v>12</v>
+        <v>-4020.6144</v>
       </c>
       <c r="T233" t="n">
-        <v>-4020.6144</v>
-      </c>
-      <c r="U233" t="n">
         <v>89449.0956</v>
       </c>
     </row>
@@ -16138,12 +15437,9 @@
         <v>0</v>
       </c>
       <c r="S234" t="n">
-        <v>12</v>
+        <v>-15756.5988</v>
       </c>
       <c r="T234" t="n">
-        <v>-15756.5988</v>
-      </c>
-      <c r="U234" t="n">
         <v>140409.8212</v>
       </c>
     </row>
@@ -16205,12 +15501,9 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>12</v>
+        <v>-2791.8335</v>
       </c>
       <c r="T235" t="n">
-        <v>-2791.8335</v>
-      </c>
-      <c r="U235" t="n">
         <v>51955.4965</v>
       </c>
     </row>
@@ -16272,12 +15565,9 @@
         <v>0</v>
       </c>
       <c r="S236" t="n">
-        <v>12</v>
+        <v>-10011.2664</v>
       </c>
       <c r="T236" t="n">
-        <v>-10011.2664</v>
-      </c>
-      <c r="U236" t="n">
         <v>75639.2536</v>
       </c>
     </row>
@@ -16339,12 +15629,9 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>12</v>
+        <v>-16570.7544</v>
       </c>
       <c r="T237" t="n">
-        <v>-16570.7544</v>
-      </c>
-      <c r="U237" t="n">
         <v>136341.3856</v>
       </c>
     </row>
@@ -16406,12 +15693,9 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>12</v>
+        <v>-14619.126</v>
       </c>
       <c r="T238" t="n">
-        <v>-14619.126</v>
-      </c>
-      <c r="U238" t="n">
         <v>236796.274</v>
       </c>
     </row>
@@ -16473,12 +15757,9 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>12</v>
+        <v>3482.4672</v>
       </c>
       <c r="T239" t="n">
-        <v>3482.4672</v>
-      </c>
-      <c r="U239" t="n">
         <v>-6583.4628</v>
       </c>
     </row>
@@ -16540,12 +15821,9 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>12</v>
+        <v>4926.1488</v>
       </c>
       <c r="T240" t="n">
-        <v>4926.1488</v>
-      </c>
-      <c r="U240" t="n">
         <v>40067.9588</v>
       </c>
     </row>
@@ -16607,12 +15885,9 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>12</v>
+        <v>-13869.8855</v>
       </c>
       <c r="T241" t="n">
-        <v>-13869.8855</v>
-      </c>
-      <c r="U241" t="n">
         <v>131762.0845</v>
       </c>
     </row>
@@ -16674,12 +15949,9 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>12</v>
+        <v>-13496.5907</v>
       </c>
       <c r="T242" t="n">
-        <v>-13496.5907</v>
-      </c>
-      <c r="U242" t="n">
         <v>122856.9793</v>
       </c>
     </row>
@@ -16741,12 +16013,9 @@
         <v>0</v>
       </c>
       <c r="S243" t="n">
-        <v>12</v>
+        <v>13573.957</v>
       </c>
       <c r="T243" t="n">
-        <v>13573.957</v>
-      </c>
-      <c r="U243" t="n">
         <v>-41566.753</v>
       </c>
     </row>
@@ -16808,12 +16077,9 @@
         <v>0</v>
       </c>
       <c r="S244" t="n">
-        <v>12</v>
+        <v>-7406.3075</v>
       </c>
       <c r="T244" t="n">
-        <v>-7406.3075</v>
-      </c>
-      <c r="U244" t="n">
         <v>64945.4625</v>
       </c>
     </row>
@@ -16875,12 +16141,9 @@
         <v>0</v>
       </c>
       <c r="S245" t="n">
-        <v>12</v>
+        <v>-12402.2077</v>
       </c>
       <c r="T245" t="n">
-        <v>-12402.2077</v>
-      </c>
-      <c r="U245" t="n">
         <v>213609.9923</v>
       </c>
     </row>
@@ -16942,12 +16205,9 @@
         <v>11555.11</v>
       </c>
       <c r="S246" t="n">
-        <v>12</v>
+        <v>-10061.5776</v>
       </c>
       <c r="T246" t="n">
-        <v>-10061.5776</v>
-      </c>
-      <c r="U246" t="n">
         <v>150229.5924</v>
       </c>
     </row>
@@ -17009,12 +16269,9 @@
         <v>15136.17</v>
       </c>
       <c r="S247" t="n">
-        <v>12</v>
+        <v>-98601.4029</v>
       </c>
       <c r="T247" t="n">
-        <v>-98601.4029</v>
-      </c>
-      <c r="U247" t="n">
         <v>809360.5270999999</v>
       </c>
     </row>
@@ -17076,12 +16333,9 @@
         <v>0</v>
       </c>
       <c r="S248" t="n">
-        <v>12</v>
+        <v>3610.6644</v>
       </c>
       <c r="T248" t="n">
-        <v>3610.6644</v>
-      </c>
-      <c r="U248" t="n">
         <v>-10254.9656</v>
       </c>
     </row>
@@ -17143,12 +16397,9 @@
         <v>0</v>
       </c>
       <c r="S249" t="n">
-        <v>12</v>
+        <v>9249.1535</v>
       </c>
       <c r="T249" t="n">
-        <v>9249.1535</v>
-      </c>
-      <c r="U249" t="n">
         <v>122795.1335</v>
       </c>
     </row>
@@ -17210,12 +16461,9 @@
         <v>0</v>
       </c>
       <c r="S250" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T250" t="n">
-        <v>0</v>
-      </c>
-      <c r="U250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17277,12 +16525,9 @@
         <v>0</v>
       </c>
       <c r="S251" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T251" t="n">
-        <v>0</v>
-      </c>
-      <c r="U251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17344,12 +16589,9 @@
         <v>0</v>
       </c>
       <c r="S252" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T252" t="n">
-        <v>0</v>
-      </c>
-      <c r="U252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17411,12 +16653,9 @@
         <v>0</v>
       </c>
       <c r="S253" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T253" t="n">
-        <v>0</v>
-      </c>
-      <c r="U253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17478,12 +16717,9 @@
         <v>0</v>
       </c>
       <c r="S254" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T254" t="n">
-        <v>0</v>
-      </c>
-      <c r="U254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17545,12 +16781,9 @@
         <v>0</v>
       </c>
       <c r="S255" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T255" t="n">
-        <v>0</v>
-      </c>
-      <c r="U255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17612,12 +16845,9 @@
         <v>0</v>
       </c>
       <c r="S256" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T256" t="n">
-        <v>0</v>
-      </c>
-      <c r="U256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17679,12 +16909,9 @@
         <v>0</v>
       </c>
       <c r="S257" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T257" t="n">
-        <v>0</v>
-      </c>
-      <c r="U257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17746,12 +16973,9 @@
         <v>0</v>
       </c>
       <c r="S258" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T258" t="n">
-        <v>0</v>
-      </c>
-      <c r="U258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17813,12 +17037,9 @@
         <v>0</v>
       </c>
       <c r="S259" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T259" t="n">
-        <v>0</v>
-      </c>
-      <c r="U259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17880,12 +17101,9 @@
         <v>0</v>
       </c>
       <c r="S260" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T260" t="n">
-        <v>0</v>
-      </c>
-      <c r="U260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17947,12 +17165,9 @@
         <v>0</v>
       </c>
       <c r="S261" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T261" t="n">
-        <v>0</v>
-      </c>
-      <c r="U261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18014,12 +17229,9 @@
         <v>0</v>
       </c>
       <c r="S262" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T262" t="n">
-        <v>0</v>
-      </c>
-      <c r="U262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18081,12 +17293,9 @@
         <v>0</v>
       </c>
       <c r="S263" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T263" t="n">
-        <v>0</v>
-      </c>
-      <c r="U263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18148,12 +17357,9 @@
         <v>0</v>
       </c>
       <c r="S264" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T264" t="n">
-        <v>0</v>
-      </c>
-      <c r="U264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18215,12 +17421,9 @@
         <v>0</v>
       </c>
       <c r="S265" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T265" t="n">
-        <v>0</v>
-      </c>
-      <c r="U265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18282,12 +17485,9 @@
         <v>0</v>
       </c>
       <c r="S266" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T266" t="n">
-        <v>0</v>
-      </c>
-      <c r="U266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18349,17 +17549,14 @@
         <v>0</v>
       </c>
       <c r="S267" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T267" t="n">
         <v>0</v>
       </c>
-      <c r="U267" t="n">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U267"/>
+  <autoFilter ref="A1:T267"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -23652,152 +22849,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>EBPay</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>33850</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>29843</v>
       </c>
       <c r="E2" t="n">
-        <v>36339</v>
+        <v>85089539.56</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>10439</v>
+        <v>75920752.59999999</v>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:01:21</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>808钱包</t>
+          <t>EBPay</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>171</v>
+        <v>19397</v>
       </c>
       <c r="D3" t="n">
-        <v>142</v>
+        <v>17083</v>
       </c>
       <c r="E3" t="n">
-        <v>223453</v>
+        <v>48413975.17</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>194192</v>
+        <v>41709365.17</v>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:01:23</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>988钱包</t>
+          <t>虚拟币扫码</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>289</v>
+        <v>9095</v>
       </c>
       <c r="D4" t="n">
-        <v>257</v>
+        <v>7302</v>
       </c>
       <c r="E4" t="n">
-        <v>343994</v>
+        <v>38253935.159</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>283170</v>
+        <v>29811861.459</v>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:04:32</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ABPAY钱包</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>10980</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>4147</v>
       </c>
       <c r="E5" t="n">
-        <v>26768</v>
+        <v>26218358</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>11110</v>
+        <v>9234715</v>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:03:11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C币钱包</t>
+          <t>极速支付宝</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>165</v>
+        <v>47789</v>
       </c>
       <c r="D6" t="n">
-        <v>140</v>
+        <v>21286</v>
       </c>
       <c r="E6" t="n">
-        <v>318255</v>
+        <v>23057100</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>286248</v>
+        <v>10143300</v>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:03:29</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -23806,16 +23003,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7160</v>
+        <v>9090</v>
       </c>
       <c r="D7" t="n">
-        <v>6360</v>
+        <v>8078</v>
       </c>
       <c r="E7" t="n">
-        <v>19762420.63</v>
+        <v>22103285.7</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>16469628.63</v>
+        <v>19480779.7</v>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
@@ -23826,29 +23023,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FPAY钱包</t>
+          <t>虚拟币扫码</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>4832</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>3648</v>
       </c>
       <c r="E8" t="n">
-        <v>16414</v>
+        <v>21256579.68</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>11269</v>
+        <v>15547772.72</v>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>00:04:14</t>
         </is>
       </c>
     </row>
@@ -23860,111 +23057,111 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GOPAY钱包</t>
+          <t>EBPay</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>231</v>
+        <v>7160</v>
       </c>
       <c r="D9" t="n">
-        <v>200</v>
+        <v>6360</v>
       </c>
       <c r="E9" t="n">
-        <v>848920</v>
+        <v>19762420.63</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>336021</v>
+        <v>16469628.63</v>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:01:24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IPay</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>8971</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>3866</v>
       </c>
       <c r="E10" t="n">
-        <v>19200</v>
+        <v>18885487.89</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>16200</v>
+        <v>6040058.5</v>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>00:01:20</t>
+          <t>00:03:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JD钱包</t>
+          <t>K豆钱包</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>162</v>
+        <v>3506</v>
       </c>
       <c r="D11" t="n">
-        <v>137</v>
+        <v>2980</v>
       </c>
       <c r="E11" t="n">
-        <v>165176</v>
+        <v>14144875</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>126115</v>
+        <v>10254117</v>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>K豆钱包</t>
+          <t>OKPAY钱包</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>811</v>
+        <v>1815</v>
       </c>
       <c r="D12" t="n">
-        <v>670</v>
+        <v>1575</v>
       </c>
       <c r="E12" t="n">
-        <v>3550126</v>
+        <v>13855703</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>2371634</v>
+        <v>12188579</v>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:00:23</t>
         </is>
       </c>
     </row>
@@ -23976,111 +23173,111 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MPay</t>
+          <t>虚拟币扫码</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>1812</v>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>1429</v>
       </c>
       <c r="E13" t="n">
-        <v>77337</v>
+        <v>11825390.56</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>44936</v>
+        <v>8679446.16</v>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:03:58</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OKPAY钱包</t>
+          <t>虚拟币扫码</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>553</v>
+        <v>2334</v>
       </c>
       <c r="D14" t="n">
-        <v>490</v>
+        <v>1830</v>
       </c>
       <c r="E14" t="n">
-        <v>1313446</v>
+        <v>11146734.31</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>1137581</v>
+        <v>9193892.279999999</v>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>00:00:19</t>
+          <t>00:04:19</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TG钱包</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>8188</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>3474</v>
       </c>
       <c r="E15" t="n">
-        <v>39996</v>
+        <v>10907663</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>14698</v>
+        <v>3749300</v>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:03:04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOPAY钱包</t>
+          <t>极速支付宝</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>147</v>
+        <v>27017</v>
       </c>
       <c r="D16" t="n">
-        <v>130</v>
+        <v>12865</v>
       </c>
       <c r="E16" t="n">
-        <v>235878</v>
+        <v>10580100</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>219233</v>
+        <v>4952200</v>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>00:01:04</t>
+          <t>00:03:32</t>
         </is>
       </c>
     </row>
@@ -24092,285 +23289,285 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>万币钱包</t>
+          <t>支付宝</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>158</v>
+        <v>6641</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>3057</v>
       </c>
       <c r="E17" t="n">
-        <v>174683</v>
+        <v>8007410.22</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>17858</v>
+        <v>2851396.22</v>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:03:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>银行卡转账</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2423</v>
+        <v>1513</v>
       </c>
       <c r="D18" t="n">
-        <v>549</v>
+        <v>963</v>
       </c>
       <c r="E18" t="n">
-        <v>772025</v>
+        <v>7039875.5</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>156002</v>
+        <v>4197971.5</v>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>00:02:10</t>
+          <t>00:05:31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>极速微信</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>6641</v>
+        <v>17803</v>
       </c>
       <c r="D19" t="n">
-        <v>3057</v>
+        <v>8230</v>
       </c>
       <c r="E19" t="n">
-        <v>8007410.22</v>
+        <v>5340700</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>2851396.22</v>
+        <v>2264700</v>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:01:36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>数字人民币</t>
+          <t>K豆钱包</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1411</v>
+        <v>1090</v>
       </c>
       <c r="D20" t="n">
-        <v>837</v>
+        <v>888</v>
       </c>
       <c r="E20" t="n">
-        <v>744606</v>
+        <v>5025057</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>354966</v>
+        <v>4037764</v>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>00:02:52</t>
+          <t>00:00:23</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>极速微信</t>
+          <t>极速支付宝</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1934</v>
+        <v>11484</v>
       </c>
       <c r="D21" t="n">
-        <v>838</v>
+        <v>5458</v>
       </c>
       <c r="E21" t="n">
-        <v>517300</v>
+        <v>4937800</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>161300</v>
+        <v>2373300</v>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>00:01:08</t>
+          <t>00:03:41</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>极速支付宝</t>
+          <t>银行卡转账</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8146</v>
+        <v>1078</v>
       </c>
       <c r="D22" t="n">
-        <v>4007</v>
+        <v>706</v>
       </c>
       <c r="E22" t="n">
-        <v>3579800</v>
+        <v>4914560</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>1714000</v>
+        <v>3013346</v>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>00:03:42</t>
+          <t>00:05:19</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>网银转账</t>
+          <t>K豆钱包</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>118</v>
+        <v>2498</v>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>2131</v>
       </c>
       <c r="E23" t="n">
-        <v>506360</v>
+        <v>4708970</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>158869</v>
+        <v>3648281</v>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>00:04:01</t>
+          <t>00:00:25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>虚拟币扫码</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1812</v>
+        <v>13869</v>
       </c>
       <c r="D24" t="n">
-        <v>1429</v>
+        <v>2654</v>
       </c>
       <c r="E24" t="n">
-        <v>11825390.56</v>
+        <v>4067545</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>8679446.16</v>
+        <v>738080</v>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>00:03:58</t>
+          <t>00:02:24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>钱能钱包</t>
+          <t>988钱包</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>289</v>
+        <v>1371</v>
       </c>
       <c r="D25" t="n">
-        <v>245</v>
+        <v>1172</v>
       </c>
       <c r="E25" t="n">
-        <v>571351</v>
+        <v>4015123</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>513100</v>
+        <v>3291468</v>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>近3日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>银联扫码</t>
+          <t>数字人民币</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1563</v>
+        <v>8994</v>
       </c>
       <c r="D26" t="n">
-        <v>763</v>
+        <v>4869</v>
       </c>
       <c r="E26" t="n">
-        <v>448519</v>
+        <v>3626070.55</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>196479</v>
+        <v>1611204</v>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:02:39</t>
         </is>
       </c>
     </row>
@@ -24382,169 +23579,169 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>银行卡转账</t>
+          <t>极速支付宝</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>524</v>
+        <v>8146</v>
       </c>
       <c r="D27" t="n">
-        <v>337</v>
+        <v>4007</v>
       </c>
       <c r="E27" t="n">
-        <v>2617725</v>
+        <v>3579800</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>1570768</v>
+        <v>1714000</v>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>00:05:24</t>
+          <t>00:03:42</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>K豆钱包</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>811</v>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>670</v>
       </c>
       <c r="E28" t="n">
-        <v>27987</v>
+        <v>3550126</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>9387</v>
+        <v>2371634</v>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:31</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>365钱包</t>
+          <t>OKPAY钱包</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1038</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>939</v>
       </c>
       <c r="E29" t="n">
-        <v>3150</v>
+        <v>3409029.02</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>150</v>
+        <v>3109006.02</v>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>00:02:04</t>
+          <t>00:00:23</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>808钱包</t>
+          <t>极速微信</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>240</v>
+        <v>11522</v>
       </c>
       <c r="D30" t="n">
-        <v>203</v>
+        <v>5152</v>
       </c>
       <c r="E30" t="n">
-        <v>350907</v>
+        <v>3322200</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>171803</v>
+        <v>1326500</v>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:01:30</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>988钱包</t>
+          <t>钱能钱包</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>350</v>
+        <v>1402</v>
       </c>
       <c r="D31" t="n">
-        <v>299</v>
+        <v>1106</v>
       </c>
       <c r="E31" t="n">
-        <v>437846</v>
+        <v>2746337</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>367763</v>
+        <v>2014620</v>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:26</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ABPAY钱包</t>
+          <t>银行卡转账</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>78</v>
+        <v>524</v>
       </c>
       <c r="D32" t="n">
-        <v>51</v>
+        <v>337</v>
       </c>
       <c r="E32" t="n">
-        <v>77975</v>
+        <v>2617725</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>27001</v>
+        <v>1570768</v>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:05:24</t>
         </is>
       </c>
     </row>
@@ -24556,111 +23753,111 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>C币钱包</t>
+          <t>银行卡转账</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="D33" t="n">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="E33" t="n">
-        <v>632078.88</v>
+        <v>2382279</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>312699.88</v>
+        <v>1708922</v>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:04:23</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EBPay</t>
+          <t>C币钱包</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9090</v>
+        <v>1236</v>
       </c>
       <c r="D34" t="n">
-        <v>8078</v>
+        <v>966</v>
       </c>
       <c r="E34" t="n">
-        <v>22103285.7</v>
+        <v>2285468.52</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>19480779.7</v>
+        <v>1397593.52</v>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>00:01:24</t>
+          <t>00:00:29</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FPAY钱包</t>
+          <t>银联扫码</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>7583</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>3479</v>
       </c>
       <c r="E35" t="n">
-        <v>8407</v>
+        <v>2100402</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>4007</v>
+        <v>857884</v>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:01:56</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GOPAY钱包</t>
+          <t>网银转账</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="D36" t="n">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="E36" t="n">
-        <v>233248</v>
+        <v>1948071</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>187098</v>
+        <v>349501</v>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:04:31</t>
         </is>
       </c>
     </row>
@@ -24672,252 +23869,256 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>IPay</t>
+          <t>OKPAY钱包</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24</v>
+        <v>561</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="E37" t="n">
-        <v>28166</v>
+        <v>1924933</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="1" t="n"/>
+        <v>1870699</v>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>00:00:23</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>JD钱包</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>179</v>
+        <v>6467</v>
       </c>
       <c r="D38" t="n">
-        <v>123</v>
+        <v>1230</v>
       </c>
       <c r="E38" t="n">
-        <v>116158</v>
+        <v>1906365</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>69642</v>
+        <v>344761</v>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:01:58</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>K豆钱包</t>
+          <t>万币钱包</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1090</v>
+        <v>954</v>
       </c>
       <c r="D39" t="n">
-        <v>888</v>
+        <v>162</v>
       </c>
       <c r="E39" t="n">
-        <v>5025057</v>
+        <v>1812623</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>4037764</v>
+        <v>117200</v>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:30</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MPay</t>
+          <t>数字人民币</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>36</v>
+        <v>4622</v>
       </c>
       <c r="D40" t="n">
-        <v>16</v>
+        <v>2789</v>
       </c>
       <c r="E40" t="n">
-        <v>52583</v>
+        <v>1746050</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>36337</v>
+        <v>892874</v>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>00:00:39</t>
+          <t>00:02:23</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>OKPAY钱包</t>
+          <t>988钱包</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>561</v>
+        <v>794</v>
       </c>
       <c r="D41" t="n">
-        <v>507</v>
+        <v>681</v>
       </c>
       <c r="E41" t="n">
-        <v>1924933</v>
+        <v>1606887</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>1870699</v>
+        <v>1251302</v>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:17</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TG钱包</t>
+          <t>网银转账</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>49</v>
+        <v>202</v>
       </c>
       <c r="D42" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E42" t="n">
-        <v>61737</v>
+        <v>1367907</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>52894</v>
+        <v>265299</v>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>00:02:19</t>
+          <t>00:05:45</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TOPAY钱包</t>
+          <t>808钱包</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>169</v>
+        <v>1082</v>
       </c>
       <c r="D43" t="n">
-        <v>143</v>
+        <v>921</v>
       </c>
       <c r="E43" t="n">
-        <v>180320</v>
+        <v>1367432</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>152233</v>
+        <v>888100</v>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:21</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>万币钱包</t>
+          <t>OKPAY钱包</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>259</v>
+        <v>553</v>
       </c>
       <c r="D44" t="n">
-        <v>22</v>
+        <v>490</v>
       </c>
       <c r="E44" t="n">
-        <v>359159</v>
+        <v>1313446</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>35463</v>
+        <v>1137581</v>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>钱能钱包</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4364</v>
+        <v>669</v>
       </c>
       <c r="D45" t="n">
-        <v>904</v>
+        <v>554</v>
       </c>
       <c r="E45" t="n">
-        <v>1245454</v>
+        <v>1259728</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>250630</v>
+        <v>1151705</v>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>00:02:14</t>
+          <t>00:00:26</t>
         </is>
       </c>
     </row>
@@ -24929,24 +24130,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>数字人民币</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8188</v>
+        <v>2872</v>
       </c>
       <c r="D46" t="n">
-        <v>3474</v>
+        <v>1128</v>
       </c>
       <c r="E46" t="n">
-        <v>10907663</v>
+        <v>1248850</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>3749300</v>
+        <v>392771</v>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>00:03:04</t>
+          <t>00:02:51</t>
         </is>
       </c>
     </row>
@@ -24958,343 +24159,343 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>数字人民币</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2872</v>
+        <v>4364</v>
       </c>
       <c r="D47" t="n">
-        <v>1128</v>
+        <v>904</v>
       </c>
       <c r="E47" t="n">
-        <v>1248850</v>
+        <v>1245454</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>392771</v>
+        <v>250630</v>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>00:02:51</t>
+          <t>00:02:14</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>极速微信</t>
+          <t>万币钱包</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3384</v>
+        <v>553</v>
       </c>
       <c r="D48" t="n">
-        <v>1509</v>
+        <v>59</v>
       </c>
       <c r="E48" t="n">
-        <v>840500</v>
+        <v>1061230</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>313200</v>
+        <v>34764</v>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>00:01:19</t>
+          <t>00:00:24</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>极速支付宝</t>
+          <t>GOPAY钱包</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>11484</v>
+        <v>1124</v>
       </c>
       <c r="D49" t="n">
-        <v>5458</v>
+        <v>994</v>
       </c>
       <c r="E49" t="n">
-        <v>4937800</v>
+        <v>1040799</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>2373300</v>
+        <v>813663</v>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>00:03:41</t>
+          <t>00:00:30</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>网银转账</t>
+          <t>JD钱包</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>197</v>
+        <v>671</v>
       </c>
       <c r="D50" t="n">
-        <v>19</v>
+        <v>480</v>
       </c>
       <c r="E50" t="n">
-        <v>780365</v>
+        <v>1016481.88</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>55800</v>
+        <v>542413</v>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>00:02:45</t>
+          <t>00:00:20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>虚拟币扫码</t>
+          <t>C币钱包</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2334</v>
+        <v>718</v>
       </c>
       <c r="D51" t="n">
-        <v>1830</v>
+        <v>562</v>
       </c>
       <c r="E51" t="n">
-        <v>11146734.31</v>
+        <v>1007432.52</v>
       </c>
       <c r="F51" s="1" t="n">
-        <v>9193892.279999999</v>
+        <v>683107.52</v>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>00:04:19</t>
+          <t>00:00:30</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>钱能钱包</t>
+          <t>银联扫码</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>321</v>
+        <v>3839</v>
       </c>
       <c r="D52" t="n">
-        <v>249</v>
+        <v>2044</v>
       </c>
       <c r="E52" t="n">
-        <v>572947</v>
+        <v>958669.5</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>524919</v>
+        <v>459195</v>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:01:42</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>银联扫码</t>
+          <t>TOPAY钱包</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2390</v>
+        <v>592</v>
       </c>
       <c r="D53" t="n">
-        <v>1154</v>
+        <v>494</v>
       </c>
       <c r="E53" t="n">
-        <v>690310</v>
+        <v>876224</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>276096</v>
+        <v>519388</v>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:00:26</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>近7日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>银行卡转账</t>
+          <t>GOPAY钱包</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>449</v>
+        <v>231</v>
       </c>
       <c r="D54" t="n">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="E54" t="n">
-        <v>2382279</v>
+        <v>848920</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>1708922</v>
+        <v>336021</v>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>00:04:23</t>
+          <t>00:00:22</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>极速微信</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>69</v>
+        <v>3384</v>
       </c>
       <c r="D55" t="n">
-        <v>18</v>
+        <v>1509</v>
       </c>
       <c r="E55" t="n">
-        <v>261748</v>
+        <v>840500</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>22218</v>
+        <v>313200</v>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:01:19</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>808钱包</t>
+          <t>网银转账</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>567</v>
+        <v>197</v>
       </c>
       <c r="D56" t="n">
-        <v>469</v>
+        <v>19</v>
       </c>
       <c r="E56" t="n">
-        <v>546944</v>
+        <v>780365</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>448147</v>
+        <v>55800</v>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:02:45</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>988钱包</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>794</v>
+        <v>2423</v>
       </c>
       <c r="D57" t="n">
-        <v>681</v>
+        <v>549</v>
       </c>
       <c r="E57" t="n">
-        <v>1606887</v>
+        <v>772025</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>1251302</v>
+        <v>156002</v>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:02:10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ABPAY钱包</t>
+          <t>数字人民币</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>131</v>
+        <v>1411</v>
       </c>
       <c r="D58" t="n">
-        <v>43</v>
+        <v>837</v>
       </c>
       <c r="E58" t="n">
-        <v>303539</v>
+        <v>744606</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>16252</v>
+        <v>354966</v>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:02:52</t>
         </is>
       </c>
     </row>
@@ -25306,107 +24507,107 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>C币钱包</t>
+          <t>GOPAY钱包</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>718</v>
+        <v>645</v>
       </c>
       <c r="D59" t="n">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="E59" t="n">
-        <v>1007432.52</v>
+        <v>715687</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>683107.52</v>
+        <v>624717</v>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:28</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EBPay</t>
+          <t>银联扫码</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>19397</v>
+        <v>2390</v>
       </c>
       <c r="D60" t="n">
-        <v>17083</v>
+        <v>1154</v>
       </c>
       <c r="E60" t="n">
-        <v>48413975.17</v>
+        <v>690310</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>41709365.17</v>
+        <v>276096</v>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>00:01:23</t>
+          <t>00:01:34</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FPAY钱包</t>
+          <t>C币钱包</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="D61" t="n">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="E61" t="n">
-        <v>22964</v>
+        <v>632078.88</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>19086</v>
+        <v>312699.88</v>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>00:01:01</t>
+          <t>00:00:20</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GOPAY钱包</t>
+          <t>钱能钱包</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>645</v>
+        <v>321</v>
       </c>
       <c r="D62" t="n">
-        <v>569</v>
+        <v>249</v>
       </c>
       <c r="E62" t="n">
-        <v>715687</v>
+        <v>572947</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>624717</v>
+        <v>524919</v>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
@@ -25417,27 +24618,31 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>IPay</t>
+          <t>钱能钱包</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>33</v>
+        <v>289</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="E63" t="n">
-        <v>29138</v>
+        <v>571351</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1" t="n"/>
+        <v>513100</v>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>00:00:26</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -25447,169 +24652,169 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JD钱包</t>
+          <t>808钱包</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>352</v>
+        <v>567</v>
       </c>
       <c r="D64" t="n">
-        <v>257</v>
+        <v>469</v>
       </c>
       <c r="E64" t="n">
-        <v>424083.33</v>
+        <v>546944</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>187294.33</v>
+        <v>448147</v>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:25</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>K豆钱包</t>
+          <t>极速微信</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2498</v>
+        <v>1934</v>
       </c>
       <c r="D65" t="n">
-        <v>2131</v>
+        <v>838</v>
       </c>
       <c r="E65" t="n">
-        <v>4708970</v>
+        <v>517300</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>3648281</v>
+        <v>161300</v>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:01:08</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MPay</t>
+          <t>网银转账</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D66" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E66" t="n">
-        <v>104827</v>
+        <v>506360</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>55547</v>
+        <v>158869</v>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t>00:00:28</t>
+          <t>00:04:01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>OKPAY钱包</t>
+          <t>TG钱包</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1038</v>
+        <v>133</v>
       </c>
       <c r="D67" t="n">
-        <v>939</v>
+        <v>104</v>
       </c>
       <c r="E67" t="n">
-        <v>3409029.02</v>
+        <v>494550</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>3109006.02</v>
+        <v>352077</v>
       </c>
       <c r="G67" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:01:05</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TG钱包</t>
+          <t>银联扫码</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>60</v>
+        <v>1563</v>
       </c>
       <c r="D68" t="n">
-        <v>35</v>
+        <v>763</v>
       </c>
       <c r="E68" t="n">
-        <v>56950</v>
+        <v>448519</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>37396</v>
+        <v>196479</v>
       </c>
       <c r="G68" s="1" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:01:30</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TOPAY钱包</t>
+          <t>988钱包</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="D69" t="n">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="E69" t="n">
-        <v>352650</v>
+        <v>437846</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>303921</v>
+        <v>367763</v>
       </c>
       <c r="G69" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:20</t>
         </is>
       </c>
     </row>
@@ -25621,53 +24826,53 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>万币钱包</t>
+          <t>JD钱包</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>553</v>
+        <v>352</v>
       </c>
       <c r="D70" t="n">
-        <v>59</v>
+        <v>257</v>
       </c>
       <c r="E70" t="n">
-        <v>1061230</v>
+        <v>424083.33</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>34764</v>
+        <v>187294.33</v>
       </c>
       <c r="G70" s="1" t="inlineStr">
         <is>
-          <t>00:00:24</t>
+          <t>00:00:20</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>万币钱包</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6467</v>
+        <v>259</v>
       </c>
       <c r="D71" t="n">
-        <v>1230</v>
+        <v>22</v>
       </c>
       <c r="E71" t="n">
-        <v>1906365</v>
+        <v>359159</v>
       </c>
       <c r="F71" s="1" t="n">
-        <v>344761</v>
+        <v>35463</v>
       </c>
       <c r="G71" s="1" t="inlineStr">
         <is>
-          <t>00:01:58</t>
+          <t>00:00:26</t>
         </is>
       </c>
     </row>
@@ -25679,140 +24884,140 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>TOPAY钱包</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8971</v>
+        <v>374</v>
       </c>
       <c r="D72" t="n">
-        <v>3866</v>
+        <v>321</v>
       </c>
       <c r="E72" t="n">
-        <v>18885487.89</v>
+        <v>352650</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>6040058.5</v>
+        <v>303921</v>
       </c>
       <c r="G72" s="1" t="inlineStr">
         <is>
-          <t>00:03:00</t>
+          <t>00:00:26</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>数字人民币</t>
+          <t>808钱包</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4622</v>
+        <v>240</v>
       </c>
       <c r="D73" t="n">
-        <v>2789</v>
+        <v>203</v>
       </c>
       <c r="E73" t="n">
-        <v>1746050</v>
+        <v>350907</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>892874</v>
+        <v>171803</v>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
-          <t>00:02:23</t>
+          <t>00:00:23</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>极速微信</t>
+          <t>988钱包</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>11522</v>
+        <v>289</v>
       </c>
       <c r="D74" t="n">
-        <v>5152</v>
+        <v>257</v>
       </c>
       <c r="E74" t="n">
-        <v>3322200</v>
+        <v>343994</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>1326500</v>
+        <v>283170</v>
       </c>
       <c r="G74" s="1" t="inlineStr">
         <is>
-          <t>00:01:30</t>
+          <t>00:00:17</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>极速支付宝</t>
+          <t>IPay</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>27017</v>
+        <v>100</v>
       </c>
       <c r="D75" t="n">
-        <v>12865</v>
+        <v>11</v>
       </c>
       <c r="E75" t="n">
-        <v>10580100</v>
+        <v>324204</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>4952200</v>
+        <v>3580</v>
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>00:03:32</t>
+          <t>00:00:41</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>网银转账</t>
+          <t>C币钱包</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D76" t="n">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="E76" t="n">
-        <v>1367907</v>
+        <v>318255</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>265299</v>
+        <v>286248</v>
       </c>
       <c r="G76" s="1" t="inlineStr">
         <is>
-          <t>00:05:45</t>
+          <t>00:00:30</t>
         </is>
       </c>
     </row>
@@ -25824,53 +25029,53 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>虚拟币扫码</t>
+          <t>ABPAY钱包</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4832</v>
+        <v>131</v>
       </c>
       <c r="D77" t="n">
-        <v>3648</v>
+        <v>43</v>
       </c>
       <c r="E77" t="n">
-        <v>21256579.68</v>
+        <v>303539</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>15547772.72</v>
+        <v>16252</v>
       </c>
       <c r="G77" s="1" t="inlineStr">
         <is>
-          <t>00:04:14</t>
+          <t>00:00:27</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近30日</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>钱能钱包</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>669</v>
+        <v>122</v>
       </c>
       <c r="D78" t="n">
-        <v>554</v>
+        <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>1259728</v>
+        <v>289455</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>1151705</v>
+        <v>9191</v>
       </c>
       <c r="G78" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:15</t>
         </is>
       </c>
     </row>
@@ -25882,89 +25087,89 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>银联扫码</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3839</v>
+        <v>69</v>
       </c>
       <c r="D79" t="n">
-        <v>2044</v>
+        <v>18</v>
       </c>
       <c r="E79" t="n">
-        <v>958669.5</v>
+        <v>261748</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>459195</v>
+        <v>22218</v>
       </c>
       <c r="G79" s="1" t="inlineStr">
         <is>
-          <t>00:01:42</t>
+          <t>00:00:21</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>近15日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>银行卡转账</t>
+          <t>TOPAY钱包</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1078</v>
+        <v>147</v>
       </c>
       <c r="D80" t="n">
-        <v>706</v>
+        <v>130</v>
       </c>
       <c r="E80" t="n">
-        <v>4914560</v>
+        <v>235878</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>3013346</v>
+        <v>219233</v>
       </c>
       <c r="G80" s="1" t="inlineStr">
         <is>
-          <t>00:05:19</t>
+          <t>00:01:04</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>GOPAY钱包</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="E81" t="n">
-        <v>289455</v>
+        <v>233248</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>9191</v>
+        <v>187098</v>
       </c>
       <c r="G81" s="1" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:27</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -25973,78 +25178,78 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1082</v>
+        <v>171</v>
       </c>
       <c r="D82" t="n">
-        <v>921</v>
+        <v>142</v>
       </c>
       <c r="E82" t="n">
-        <v>1367432</v>
+        <v>223453</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>888100</v>
+        <v>194192</v>
       </c>
       <c r="G82" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:26</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>988钱包</t>
+          <t>TOPAY钱包</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1371</v>
+        <v>169</v>
       </c>
       <c r="D83" t="n">
-        <v>1172</v>
+        <v>143</v>
       </c>
       <c r="E83" t="n">
-        <v>4015123</v>
+        <v>180320</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>3291468</v>
+        <v>152233</v>
       </c>
       <c r="G83" s="1" t="inlineStr">
         <is>
-          <t>00:00:24</t>
+          <t>00:00:27</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ABPAY钱包</t>
+          <t>万币钱包</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>173905</v>
+        <v>174683</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>1700</v>
+        <v>17858</v>
       </c>
       <c r="G84" s="1" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:00:22</t>
         </is>
       </c>
     </row>
@@ -26056,111 +25261,111 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>C币钱包</t>
+          <t>ABPAY钱包</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1236</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
-        <v>966</v>
+        <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>2285468.52</v>
+        <v>173905</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>1397593.52</v>
+        <v>1700</v>
       </c>
       <c r="G85" s="1" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:01:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>EBPay</t>
+          <t>JD钱包</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>33850</v>
+        <v>162</v>
       </c>
       <c r="D86" t="n">
-        <v>29843</v>
+        <v>137</v>
       </c>
       <c r="E86" t="n">
-        <v>85089539.56</v>
+        <v>165176</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>75920752.59999999</v>
+        <v>126115</v>
       </c>
       <c r="G86" s="1" t="inlineStr">
         <is>
-          <t>00:01:21</t>
+          <t>00:00:17</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FPAY钱包</t>
+          <t>JD钱包</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="D87" t="n">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="E87" t="n">
-        <v>101458</v>
+        <v>116158</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>88205</v>
+        <v>69642</v>
       </c>
       <c r="G87" s="1" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:00:25</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GOPAY钱包</t>
+          <t>MPay</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1124</v>
+        <v>82</v>
       </c>
       <c r="D88" t="n">
-        <v>994</v>
+        <v>51</v>
       </c>
       <c r="E88" t="n">
-        <v>1040799</v>
+        <v>104827</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>813663</v>
+        <v>55547</v>
       </c>
       <c r="G88" s="1" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:28</t>
         </is>
       </c>
     </row>
@@ -26172,24 +25377,24 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>IPay</t>
+          <t>MPay</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="E89" t="n">
-        <v>324204</v>
+        <v>103798</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>3580</v>
+        <v>61726</v>
       </c>
       <c r="G89" s="1" t="inlineStr">
         <is>
-          <t>00:00:41</t>
+          <t>00:00:22</t>
         </is>
       </c>
     </row>
@@ -26201,60 +25406,60 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>JD钱包</t>
+          <t>FPAY钱包</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>671</v>
+        <v>75</v>
       </c>
       <c r="D90" t="n">
-        <v>480</v>
+        <v>39</v>
       </c>
       <c r="E90" t="n">
-        <v>1016481.88</v>
+        <v>101458</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>542413</v>
+        <v>88205</v>
       </c>
       <c r="G90" s="1" t="inlineStr">
         <is>
-          <t>00:00:20</t>
+          <t>00:00:55</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>K豆钱包</t>
+          <t>ABPAY钱包</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3506</v>
+        <v>78</v>
       </c>
       <c r="D91" t="n">
-        <v>2980</v>
+        <v>51</v>
       </c>
       <c r="E91" t="n">
-        <v>14144875</v>
+        <v>77975</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>10254117</v>
+        <v>27001</v>
       </c>
       <c r="G91" s="1" t="inlineStr">
         <is>
-          <t>00:00:25</t>
+          <t>00:00:21</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -26263,56 +25468,56 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="D92" t="n">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E92" t="n">
-        <v>103798</v>
+        <v>77337</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>61726</v>
+        <v>44936</v>
       </c>
       <c r="G92" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:55</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>OKPAY钱包</t>
+          <t>TG钱包</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1815</v>
+        <v>49</v>
       </c>
       <c r="D93" t="n">
-        <v>1575</v>
+        <v>37</v>
       </c>
       <c r="E93" t="n">
-        <v>13855703</v>
+        <v>61737</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>12188579</v>
+        <v>52894</v>
       </c>
       <c r="G93" s="1" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:02:19</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -26321,368 +25526,360 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D94" t="n">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E94" t="n">
-        <v>494550</v>
+        <v>56950</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>352077</v>
+        <v>37396</v>
       </c>
       <c r="G94" s="1" t="inlineStr">
         <is>
-          <t>00:01:05</t>
+          <t>00:00:44</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TOPAY钱包</t>
+          <t>MPay</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>592</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>494</v>
+        <v>16</v>
       </c>
       <c r="E95" t="n">
-        <v>876224</v>
+        <v>52583</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>519388</v>
+        <v>36337</v>
       </c>
       <c r="G95" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:39</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>万币钱包</t>
+          <t>TG钱包</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>954</v>
+        <v>30</v>
       </c>
       <c r="D96" t="n">
-        <v>162</v>
+        <v>21</v>
       </c>
       <c r="E96" t="n">
-        <v>1812623</v>
+        <v>39996</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>117200</v>
+        <v>14698</v>
       </c>
       <c r="G96" s="1" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:26</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>13869</v>
+        <v>22</v>
       </c>
       <c r="D97" t="n">
-        <v>2654</v>
+        <v>9</v>
       </c>
       <c r="E97" t="n">
-        <v>4067545</v>
+        <v>36339</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>738080</v>
+        <v>10439</v>
       </c>
       <c r="G97" s="1" t="inlineStr">
         <is>
-          <t>00:02:24</t>
+          <t>00:00:28</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>支付宝</t>
+          <t>IPay</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>10980</v>
+        <v>33</v>
       </c>
       <c r="D98" t="n">
-        <v>4147</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>26218358</v>
+        <v>29138</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>9234715</v>
-      </c>
-      <c r="G98" s="1" t="inlineStr">
-        <is>
-          <t>00:03:11</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G98" s="1" t="n"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>数字人民币</t>
+          <t>IPay</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>8994</v>
+        <v>24</v>
       </c>
       <c r="D99" t="n">
-        <v>4869</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>3626070.55</v>
+        <v>28166</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>1611204</v>
-      </c>
-      <c r="G99" s="1" t="inlineStr">
-        <is>
-          <t>00:02:39</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G99" s="1" t="n"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>极速微信</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>17803</v>
+        <v>20</v>
       </c>
       <c r="D100" t="n">
-        <v>8230</v>
+        <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>5340700</v>
+        <v>27987</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>2264700</v>
+        <v>9387</v>
       </c>
       <c r="G100" s="1" t="inlineStr">
         <is>
-          <t>00:01:36</t>
+          <t>00:00:22</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>极速支付宝</t>
+          <t>ABPAY钱包</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>47789</v>
+        <v>36</v>
       </c>
       <c r="D101" t="n">
-        <v>21286</v>
+        <v>22</v>
       </c>
       <c r="E101" t="n">
-        <v>23057100</v>
+        <v>26768</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>10143300</v>
+        <v>11110</v>
       </c>
       <c r="G101" s="1" t="inlineStr">
         <is>
-          <t>00:03:29</t>
+          <t>00:00:32</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近15日</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>网银转账</t>
+          <t>FPAY钱包</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="D102" t="n">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E102" t="n">
-        <v>1948071</v>
+        <v>22964</v>
       </c>
       <c r="F102" s="1" t="n">
-        <v>349501</v>
+        <v>19086</v>
       </c>
       <c r="G102" s="1" t="inlineStr">
         <is>
-          <t>00:04:31</t>
+          <t>00:01:01</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>虚拟币扫码</t>
+          <t>IPay</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9095</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>7302</v>
+        <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>38253935.159</v>
+        <v>19200</v>
       </c>
       <c r="F103" s="1" t="n">
-        <v>29811861.459</v>
+        <v>16200</v>
       </c>
       <c r="G103" s="1" t="inlineStr">
         <is>
-          <t>00:04:32</t>
+          <t>00:01:20</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近3日</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>钱能钱包</t>
+          <t>FPAY钱包</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1402</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>1106</v>
+        <v>9</v>
       </c>
       <c r="E104" t="n">
-        <v>2746337</v>
+        <v>16414</v>
       </c>
       <c r="F104" s="1" t="n">
-        <v>2014620</v>
+        <v>11269</v>
       </c>
       <c r="G104" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:01:22</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>银联扫码</t>
+          <t>FPAY钱包</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7583</v>
+        <v>12</v>
       </c>
       <c r="D105" t="n">
-        <v>3479</v>
+        <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>2100402</v>
+        <v>8407</v>
       </c>
       <c r="F105" s="1" t="n">
-        <v>857884</v>
+        <v>4007</v>
       </c>
       <c r="G105" s="1" t="inlineStr">
         <is>
-          <t>00:01:56</t>
+          <t>00:00:53</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>近30日</t>
+          <t>近7日</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>银行卡转账</t>
+          <t>365钱包</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1513</v>
+        <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>963</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>7039875.5</v>
+        <v>3150</v>
       </c>
       <c r="F106" s="1" t="n">
-        <v>4197971.5</v>
+        <v>150</v>
       </c>
       <c r="G106" s="1" t="inlineStr">
         <is>
-          <t>00:05:31</t>
+          <t>00:02:04</t>
         </is>
       </c>
     </row>
